--- a/output/경기동로_W_여름_배출량/경기동로_W_여름_배출량_PM25_재비산.xlsx
+++ b/output/경기동로_W_여름_배출량/경기동로_W_여름_배출량_PM25_재비산.xlsx
@@ -1,37 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>01_car_PM25_재비산</t>
+  </si>
+  <si>
+    <t>02_taxi_PM25_재비산</t>
+  </si>
+  <si>
+    <t>03_van_PM25_재비산</t>
+  </si>
+  <si>
+    <t>04_bus_PM25_재비산</t>
+  </si>
+  <si>
+    <t>05_LightTruck_PM25_재비산</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_PM25_재비산</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_PM25_재비산</t>
+  </si>
+  <si>
+    <t>Total_PM25_재비산 (g/h)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +81,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,1280 +397,1378 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Total_PM25_재비산 (g/h)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
         <v>2024081209</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>1.452919297008978</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>0.1309407449700677</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>0.7350643671072294</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
+        <v>0.5797523702978908</v>
+      </c>
+      <c r="F2">
         <v>0.6240203284944512</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2">
         <v>0.9102299424440899</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2">
         <v>0.02226226708736377</v>
       </c>
-      <c r="H2" t="n">
-        <v>3.87543694711218</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="I2">
+        <v>4.455189317410071</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
         <v>2024081210</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>1.669503540041372</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>0.1558818392500806</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>0.4900429114048199</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
+        <v>0.3312870687416518</v>
+      </c>
+      <c r="F3">
         <v>0.7828618666566751</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3">
         <v>1.410856410788339</v>
       </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="n">
-        <v>4.509146568141286</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="I3">
+        <v>4.840433636882938</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
         <v>2024081211</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>1.360419776547227</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>0.112234924260058</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>0.3879506381954823</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
+        <v>0.5590469285015375</v>
+      </c>
+      <c r="F4">
         <v>0.6126745043400066</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4">
         <v>0.9329856910051921</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4">
         <v>0.02226226708736377</v>
       </c>
-      <c r="H4" t="n">
-        <v>3.428527801435329</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="I4">
+        <v>3.987574729936866</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
         <v>2024081212</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>1.556699246795333</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>0.1496465656800773</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>0.5921351846141573</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
+        <v>0.3726979523343584</v>
+      </c>
+      <c r="F5">
         <v>0.5956557681083399</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5">
         <v>0.6599167082719655</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5">
         <v>0.04452453417472754</v>
       </c>
-      <c r="H5" t="n">
-        <v>3.598578007644601</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="I5">
+        <v>3.971275959978959</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
         <v>2024081213</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>1.479992327388027</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>0.2057640278101063</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>0.4900429114048199</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
+        <v>0.3519925105380051</v>
+      </c>
+      <c r="F6">
         <v>0.5899828560311177</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6">
         <v>0.8874741938829876</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6">
         <v>0.01113113354368189</v>
       </c>
-      <c r="H6" t="n">
-        <v>3.66438745006074</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="I6">
+        <v>4.016379960598745</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
         <v>2024081214</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>1.450663211144057</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>0.1184701978300612</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>0.3879506381954823</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
+        <v>0.4762251613161247</v>
+      </c>
+      <c r="F7">
         <v>0.6637307130350072</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7">
         <v>0.8192069481996813</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7">
         <v>0.1001802018931369</v>
       </c>
-      <c r="H7" t="n">
-        <v>3.540201910297426</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="I7">
+        <v>4.016427071613551</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
         <v>2024081215</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>1.39877323625088</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>0.1808229335300934</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>0.4083690928373497</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
+        <v>0.4141088359270649</v>
+      </c>
+      <c r="F8">
         <v>0.6296932405716736</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8">
         <v>0.6826724568330677</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8">
         <v>0.03339340063104566</v>
       </c>
-      <c r="H8" t="n">
-        <v>3.33372436065411</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="I8">
+        <v>3.747833196581175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
         <v>2024081216</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>1.567979676119937</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>0.09976437712005157</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>0.8167381856746995</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
+        <v>0.496930603112478</v>
+      </c>
+      <c r="F9">
         <v>0.618347416417229</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9">
         <v>0.5006264683442494</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9">
         <v>0.03339340063104566</v>
       </c>
-      <c r="H9" t="n">
-        <v>3.636849524307212</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="I9">
+        <v>4.133780127419691</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
         <v>2024081217</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>1.908648641722974</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>0.1496465656800773</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>0.5104613660466873</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
+        <v>0.4555197195197714</v>
+      </c>
+      <c r="F10">
         <v>0.5389266473361169</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10">
         <v>0.3640919769776361</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10">
         <v>0.01113113354368189</v>
       </c>
-      <c r="H10" t="n">
-        <v>3.482906331307173</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="I10">
+        <v>3.938426050826945</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
         <v>2024081218</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>1.863526924424559</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>0.04364691499002256</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>0.5512982753304221</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
+        <v>0.5383414867051844</v>
+      </c>
+      <c r="F11">
         <v>0.2836456038611142</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11">
         <v>0.2275574856110225</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11">
         <v>0.02226226708736377</v>
       </c>
-      <c r="H11" t="n">
-        <v>2.991937471304504</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="I11">
+        <v>3.530278958009688</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
         <v>2024081219</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>1.642430509662323</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>0.07482328284003867</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>0.3879506381954823</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
+        <v>0.7246904628723635</v>
+      </c>
+      <c r="F12">
         <v>0.2042248347800022</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12">
         <v>0.3868477255387384</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12">
         <v>0.02226226708736377</v>
       </c>
-      <c r="H12" t="n">
-        <v>2.718539258103948</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="I12">
+        <v>3.443229720976312</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
         <v>2024081220</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>1.290481114734682</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>0.03741164142001933</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>0.3062768196280122</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
+        <v>0.5797523702978908</v>
+      </c>
+      <c r="F13">
         <v>0.1815331864711131</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13">
         <v>0.2048017370499203</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13">
         <v>0.01113113354368189</v>
       </c>
-      <c r="H13" t="n">
-        <v>2.031635632847429</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="I13">
+        <v>2.611388003145319</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
         <v>2024081221</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>1.012982553349427</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>0.05611746213002901</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>0.2858583649861449</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
+        <v>0.6625741374833036</v>
+      </c>
+      <c r="F14">
         <v>0.119131153621668</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14">
         <v>0.1365344913666135</v>
       </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="n">
-        <v>1.610624025453882</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="I14">
+        <v>2.273198162937186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
         <v>2024081222</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>0.665545330151628</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>0.02494109428001289</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>0.122510727851205</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
+        <v>0.3726979523343584</v>
+      </c>
+      <c r="F15">
         <v>0.08509368115833427</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15">
         <v>0.1592902399277158</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15">
         <v>0.01113113354368189</v>
       </c>
-      <c r="H15" t="n">
-        <v>1.068512206912578</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="I15">
+        <v>1.441210159246936</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
         <v>2024081223</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>0.3451811373328784</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>0.06858800927003544</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>0.1633476371349399</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
+        <v>0.1656435343708259</v>
+      </c>
+      <c r="F16">
         <v>0.1021124173900011</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16">
         <v>0.1137787428055112</v>
       </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="n">
-        <v>0.793007943933366</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="I16">
+        <v>0.958651478304192</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
         <v>2024081300</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>0.2368890158166812</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>0.03117636785001611</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>0.04083690928373497</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17">
         <v>0.05105620869500056</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17">
         <v>0.1137787428055112</v>
       </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="n">
+      <c r="I17">
         <v>0.4737372444509441</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:9">
+      <c r="A18">
         <v>2024081301</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>0.1917672985182658</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>0.06235273570003222</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>0.08167381856746994</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
+        <v>0.02070544179635324</v>
+      </c>
+      <c r="F18">
         <v>0.06807494492666741</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18">
         <v>0.09102299424440903</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18">
         <v>0.02226226708736377</v>
       </c>
-      <c r="H18" t="n">
-        <v>0.5171540590442082</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="I18">
+        <v>0.5378595008405616</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
         <v>2024081302</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>0.1060360356512763</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>0.01870582071000967</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>0.08167381856746994</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19">
         <v>0.07374785700388971</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19">
         <v>0.1592902399277158</v>
       </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="n">
+      <c r="I19">
         <v>0.4394537718603614</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" spans="1:9">
+      <c r="A20">
         <v>2024081303</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>0.1037799497863555</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>0.01870582071000967</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>0.06125536392560248</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
+        <v>0.08282176718541295</v>
+      </c>
+      <c r="F20">
         <v>0.04538329661777827</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20">
         <v>0.04551149712220452</v>
       </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="n">
-        <v>0.2746359281619505</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="I20">
+        <v>0.3574576953473634</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
         <v>2024081304</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>0.2707303037904928</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>0.006235273570003223</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>0.08167381856746994</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
+        <v>0.04141088359270648</v>
+      </c>
+      <c r="F21">
         <v>0.07374785700388971</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21">
         <v>0.04551149712220452</v>
       </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="n">
-        <v>0.4778987500540601</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="I21">
+        <v>0.5193096336467666</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
         <v>2024081305</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>0.7806057092625872</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>0.04988218856002578</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>0.3062768196280122</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
+        <v>0.1863489761671792</v>
+      </c>
+      <c r="F22">
         <v>0.2382623072433359</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22">
         <v>0.3640919769776361</v>
       </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="n">
-        <v>1.739119001671597</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="I22">
+        <v>1.925467977838776</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
         <v>2024081306</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>1.236335053976584</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>0.08729382998004512</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>0.3266952742698798</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
+        <v>0.7246904628723635</v>
+      </c>
+      <c r="F23">
         <v>0.4254684057916713</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23">
         <v>0.7509397025163743</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23">
         <v>0.05565566771840942</v>
       </c>
-      <c r="H23" t="n">
-        <v>2.882387934252963</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="I23">
+        <v>3.607078397125327</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
         <v>2024081307</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>1.628893994472799</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>0.05611746213002901</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>0.5104613660466873</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
+        <v>0.786806788261423</v>
+      </c>
+      <c r="F24">
         <v>0.4651787903322273</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24">
         <v>0.455114971222045</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24">
         <v>0.02226226708736377</v>
       </c>
-      <c r="H24" t="n">
-        <v>3.138028851291151</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="I24">
+        <v>3.924835639552575</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
         <v>2024081308</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>1.646942681392164</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>0.06235273570003222</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>0.4083690928373497</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
+        <v>0.5383414867051844</v>
+      </c>
+      <c r="F25">
         <v>0.3517205487877815</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25">
         <v>0.6826724568330677</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25">
         <v>0.06678680126209131</v>
       </c>
-      <c r="H25" t="n">
-        <v>3.218844316812486</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="I25">
+        <v>3.757185803517671</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
         <v>2024081309</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>1.452919297008978</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>0.1309407449700677</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>0.7350643671072294</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
+        <v>0.5797523702978908</v>
+      </c>
+      <c r="F26">
         <v>0.6240203284944512</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26">
         <v>0.9102299424440899</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26">
         <v>0.02226226708736377</v>
       </c>
-      <c r="H26" t="n">
-        <v>3.87543694711218</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="I26">
+        <v>4.455189317410071</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
         <v>2024081310</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>1.254383740895949</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>0.1309407449700677</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>0.5308798206885547</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
+        <v>0.3519925105380051</v>
+      </c>
+      <c r="F27">
         <v>0.7318056579616747</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27">
         <v>0.6371609597108631</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27">
         <v>0.01113113354368189</v>
       </c>
-      <c r="H27" t="n">
-        <v>3.296302057770791</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="I27">
+        <v>3.648294568308796</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
         <v>2024081311</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>1.423590180765008</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>0.1808229335300934</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>0.5308798206885547</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
+        <v>0.4762251613161247</v>
+      </c>
+      <c r="F28">
         <v>0.5672912077222284</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28">
         <v>0.9102299424440899</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28">
         <v>0.02226226708736377</v>
       </c>
-      <c r="H28" t="n">
-        <v>3.635076352237338</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="I28">
+        <v>4.111301513553462</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
         <v>2024081312</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>1.297249372329444</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>0.1558818392500806</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>0.5717167299722897</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
+        <v>0.3519925105380051</v>
+      </c>
+      <c r="F29">
         <v>0.4651787903322273</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29">
         <v>0.3868477255387384</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29">
         <v>0.03339340063104566</v>
       </c>
-      <c r="H29" t="n">
-        <v>2.910267858053825</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="I29">
+        <v>3.262260368591831</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
         <v>2024081313</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>1.310785887518968</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>0.09352910355004836</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>0.5104613660466873</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
+        <v>0.3105816269452986</v>
+      </c>
+      <c r="F30">
         <v>0.5672912077222284</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30">
         <v>0.7509397025163743</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30">
         <v>0.04452453417472754</v>
       </c>
-      <c r="H30" t="n">
-        <v>3.277531801529034</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="I30">
+        <v>3.588113428474333</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
         <v>2024081314</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>1.31529805924881</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>0.1247054714000644</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>0.6533905485397595</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
+        <v>0.3312870687416518</v>
+      </c>
+      <c r="F31">
         <v>0.6637307130350072</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31">
         <v>0.4778707197831473</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31">
         <v>0.02226226708736377</v>
       </c>
-      <c r="H31" t="n">
-        <v>3.257257779094152</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="I31">
+        <v>3.588544847835804</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
         <v>2024081315</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>1.376212377601672</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>0.1434112921100741</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>0.5104613660466873</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
+        <v>0.4348142777234182</v>
+      </c>
+      <c r="F32">
         <v>0.6637307130350072</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32">
         <v>0.5233822169053518</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32">
         <v>0.03339340063104566</v>
       </c>
-      <c r="H32" t="n">
-        <v>3.250591366329838</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="I32">
+        <v>3.685405644053256</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
         <v>2024081316</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>1.567979676119937</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>0.09976437712005157</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>0.8167381856746995</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
+        <v>0.496930603112478</v>
+      </c>
+      <c r="F33">
         <v>0.618347416417229</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33">
         <v>0.5006264683442494</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33">
         <v>0.03339340063104566</v>
       </c>
-      <c r="H33" t="n">
-        <v>3.636849524307212</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="I33">
+        <v>4.133780127419691</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
         <v>2024081317</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>1.908648641722974</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>0.1496465656800773</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>0.5104613660466873</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
+        <v>0.4555197195197714</v>
+      </c>
+      <c r="F34">
         <v>0.5389266473361169</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34">
         <v>0.3640919769776361</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34">
         <v>0.01113113354368189</v>
       </c>
-      <c r="H34" t="n">
-        <v>3.482906331307173</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="I34">
+        <v>3.938426050826945</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
         <v>2024081318</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>1.863526924424559</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>0.04364691499002256</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>0.5512982753304221</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
+        <v>0.5383414867051844</v>
+      </c>
+      <c r="F35">
         <v>0.2836456038611142</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35">
         <v>0.2275574856110225</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35">
         <v>0.02226226708736377</v>
       </c>
-      <c r="H35" t="n">
-        <v>2.991937471304504</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+      <c r="I35">
+        <v>3.530278958009688</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
         <v>2024081319</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>1.642430509662323</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>0.07482328284003867</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>0.3879506381954823</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
+        <v>0.7246904628723635</v>
+      </c>
+      <c r="F36">
         <v>0.2042248347800022</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36">
         <v>0.3868477255387384</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36">
         <v>0.02226226708736377</v>
       </c>
-      <c r="H36" t="n">
-        <v>2.718539258103948</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="I36">
+        <v>3.443229720976312</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
         <v>2024081320</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>1.290481114734682</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>0.03741164142001933</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>0.3062768196280122</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
+        <v>0.5797523702978908</v>
+      </c>
+      <c r="F37">
         <v>0.1815331864711131</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37">
         <v>0.2048017370499203</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37">
         <v>0.01113113354368189</v>
       </c>
-      <c r="H37" t="n">
-        <v>2.031635632847429</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="I37">
+        <v>2.611388003145319</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
         <v>2024081321</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>1.012982553349427</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>0.05611746213002901</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>0.2858583649861449</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
+        <v>0.6625741374833036</v>
+      </c>
+      <c r="F38">
         <v>0.119131153621668</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38">
         <v>0.1365344913666135</v>
       </c>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="n">
-        <v>1.610624025453882</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="I38">
+        <v>2.273198162937186</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
         <v>2024081322</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>0.665545330151628</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>0.02494109428001289</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>0.122510727851205</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
+        <v>0.3726979523343584</v>
+      </c>
+      <c r="F39">
         <v>0.08509368115833427</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39">
         <v>0.1592902399277158</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39">
         <v>0.01113113354368189</v>
       </c>
-      <c r="H39" t="n">
-        <v>1.068512206912578</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
+      <c r="I39">
+        <v>1.441210159246936</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
         <v>2024081323</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>0.3451811373328784</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>0.06858800927003544</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>0.1633476371349399</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
+        <v>0.1656435343708259</v>
+      </c>
+      <c r="F40">
         <v>0.1021124173900011</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40">
         <v>0.1137787428055112</v>
       </c>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="n">
-        <v>0.793007943933366</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
+      <c r="I40">
+        <v>0.958651478304192</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
         <v>2024081400</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>0.2368890158166812</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>0.03117636785001611</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>0.04083690928373497</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41">
         <v>0.05105620869500056</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41">
         <v>0.1137787428055112</v>
       </c>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="n">
+      <c r="I41">
         <v>0.4737372444509441</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="n">
+    <row r="42" spans="1:9">
+      <c r="A42">
         <v>2024081401</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>0.1917672985182658</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>0.06235273570003222</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>0.08167381856746994</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
+        <v>0.02070544179635324</v>
+      </c>
+      <c r="F42">
         <v>0.06807494492666741</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42">
         <v>0.09102299424440903</v>
       </c>
-      <c r="G42" t="n">
+      <c r="H42">
         <v>0.02226226708736377</v>
       </c>
-      <c r="H42" t="n">
-        <v>0.5171540590442082</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
+      <c r="I42">
+        <v>0.5378595008405616</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43">
         <v>2024081402</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>0.1060360356512763</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>0.01870582071000967</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>0.08167381856746994</v>
       </c>
-      <c r="E43" t="n">
+      <c r="F43">
         <v>0.07374785700388971</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43">
         <v>0.1592902399277158</v>
       </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="n">
+      <c r="I43">
         <v>0.4394537718603614</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="n">
+    <row r="44" spans="1:9">
+      <c r="A44">
         <v>2024081403</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>0.1037799497863555</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>0.01870582071000967</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>0.06125536392560248</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
+        <v>0.08282176718541295</v>
+      </c>
+      <c r="F44">
         <v>0.04538329661777827</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44">
         <v>0.04551149712220452</v>
       </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="n">
-        <v>0.2746359281619505</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
+      <c r="I44">
+        <v>0.3574576953473634</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
         <v>2024081404</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>0.2707303037904928</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>0.006235273570003223</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>0.08167381856746994</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
+        <v>0.04141088359270648</v>
+      </c>
+      <c r="F45">
         <v>0.07374785700388971</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45">
         <v>0.04551149712220452</v>
       </c>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="n">
-        <v>0.4778987500540601</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+      <c r="I45">
+        <v>0.5193096336467666</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
         <v>2024081405</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>0.7806057092625872</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>0.04988218856002578</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>0.3062768196280122</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
+        <v>0.1863489761671792</v>
+      </c>
+      <c r="F46">
         <v>0.2382623072433359</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46">
         <v>0.3640919769776361</v>
       </c>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="n">
-        <v>1.739119001671597</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+      <c r="I46">
+        <v>1.925467977838776</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
         <v>2024081406</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>1.236335053976584</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>0.08729382998004512</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>0.3266952742698798</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
+        <v>0.7246904628723635</v>
+      </c>
+      <c r="F47">
         <v>0.4254684057916713</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47">
         <v>0.7509397025163743</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47">
         <v>0.05565566771840942</v>
       </c>
-      <c r="H47" t="n">
-        <v>2.882387934252963</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+      <c r="I47">
+        <v>3.607078397125327</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
         <v>2024081407</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>1.628893994472799</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>0.05611746213002901</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>0.5104613660466873</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
+        <v>0.786806788261423</v>
+      </c>
+      <c r="F48">
         <v>0.4651787903322273</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48">
         <v>0.455114971222045</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48">
         <v>0.02226226708736377</v>
       </c>
-      <c r="H48" t="n">
-        <v>3.138028851291151</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+      <c r="I48">
+        <v>3.924835639552575</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
         <v>2024081408</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>1.646942681392164</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>0.06235273570003222</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>0.4083690928373497</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
+        <v>0.5383414867051844</v>
+      </c>
+      <c r="F49">
         <v>0.3517205487877815</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49">
         <v>0.6826724568330677</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49">
         <v>0.06678680126209131</v>
       </c>
-      <c r="H49" t="n">
-        <v>3.218844316812486</v>
+      <c r="I49">
+        <v>3.757185803517671</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/경기동로_W_여름_배출량/경기동로_W_여름_배출량_PM25_재비산.xlsx
+++ b/output/경기동로_W_여름_배출량/경기동로_W_여름_배출량_PM25_재비산.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>1.452919297008978</v>
+        <v>6.439966613769521</v>
       </c>
       <c r="C2">
-        <v>0.1309407449700677</v>
+        <v>0.5803860047321919</v>
       </c>
       <c r="D2">
-        <v>0.7350643671072294</v>
+        <v>3.258123140691503</v>
       </c>
       <c r="E2">
-        <v>0.5797523702978908</v>
+        <v>2.569713208887948</v>
       </c>
       <c r="F2">
-        <v>0.6240203284944512</v>
+        <v>2.765927942515946</v>
       </c>
       <c r="G2">
-        <v>0.9102299424440899</v>
+        <v>4.034532717860292</v>
       </c>
       <c r="H2">
-        <v>0.02226226708736377</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="I2">
-        <v>4.455189317410071</v>
+        <v>19.74732562311491</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,25 +467,25 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>1.669503540041372</v>
+        <v>7.399961636940136</v>
       </c>
       <c r="C3">
-        <v>0.1558818392500806</v>
+        <v>0.690935719919276</v>
       </c>
       <c r="D3">
-        <v>0.4900429114048199</v>
+        <v>2.172082093794335</v>
       </c>
       <c r="E3">
-        <v>0.3312870687416518</v>
+        <v>1.468407547935971</v>
       </c>
       <c r="F3">
-        <v>0.7828618666566751</v>
+        <v>3.469982327883641</v>
       </c>
       <c r="G3">
-        <v>1.410856410788339</v>
+        <v>6.253525712683452</v>
       </c>
       <c r="I3">
-        <v>4.840433636882938</v>
+        <v>21.45489503915681</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -493,28 +493,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>1.360419776547227</v>
+        <v>6.02996873929041</v>
       </c>
       <c r="C4">
-        <v>0.112234924260058</v>
+        <v>0.4974737183418786</v>
       </c>
       <c r="D4">
-        <v>0.3879506381954823</v>
+        <v>1.719564990920516</v>
       </c>
       <c r="E4">
-        <v>0.5590469285015375</v>
+        <v>2.47793773714195</v>
       </c>
       <c r="F4">
-        <v>0.6126745043400066</v>
+        <v>2.715638343561111</v>
       </c>
       <c r="G4">
-        <v>0.9329856910051921</v>
+        <v>4.135396035806799</v>
       </c>
       <c r="H4">
-        <v>0.02226226708736377</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="I4">
-        <v>3.987574729936866</v>
+        <v>17.67465555972017</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -522,28 +522,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>1.556699246795333</v>
+        <v>6.899964229038773</v>
       </c>
       <c r="C5">
-        <v>0.1496465656800773</v>
+        <v>0.6632982911225049</v>
       </c>
       <c r="D5">
-        <v>0.5921351846141573</v>
+        <v>2.624599196668157</v>
       </c>
       <c r="E5">
-        <v>0.3726979523343584</v>
+        <v>1.651958491427967</v>
       </c>
       <c r="F5">
-        <v>0.5956557681083399</v>
+        <v>2.640203945128857</v>
       </c>
       <c r="G5">
-        <v>0.6599167082719655</v>
+        <v>2.925036220448711</v>
       </c>
       <c r="H5">
-        <v>0.04452453417472754</v>
+        <v>0.1973519893150085</v>
       </c>
       <c r="I5">
-        <v>3.971275959978959</v>
+        <v>17.60241236314998</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -551,28 +551,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>1.479992327388027</v>
+        <v>6.55996599166585</v>
       </c>
       <c r="C6">
-        <v>0.2057640278101063</v>
+        <v>0.9120351502934443</v>
       </c>
       <c r="D6">
-        <v>0.4900429114048199</v>
+        <v>2.172082093794335</v>
       </c>
       <c r="E6">
-        <v>0.3519925105380051</v>
+        <v>1.560183019681969</v>
       </c>
       <c r="F6">
-        <v>0.5899828560311177</v>
+        <v>2.615059145651439</v>
       </c>
       <c r="G6">
-        <v>0.8874741938829876</v>
+        <v>3.933669399913784</v>
       </c>
       <c r="H6">
-        <v>0.01113113354368189</v>
+        <v>0.04933799732875212</v>
       </c>
       <c r="I6">
-        <v>4.016379960598745</v>
+        <v>17.80233279832957</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -580,28 +580,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>1.450663211144057</v>
+        <v>6.429966665611493</v>
       </c>
       <c r="C7">
-        <v>0.1184701978300612</v>
+        <v>0.5251111471386498</v>
       </c>
       <c r="D7">
-        <v>0.3879506381954823</v>
+        <v>1.719564990920516</v>
       </c>
       <c r="E7">
-        <v>0.4762251613161247</v>
+        <v>2.110835850157958</v>
       </c>
       <c r="F7">
-        <v>0.6637307130350072</v>
+        <v>2.94194153885787</v>
       </c>
       <c r="G7">
-        <v>0.8192069481996813</v>
+        <v>3.631079446074262</v>
       </c>
       <c r="H7">
-        <v>0.1001802018931369</v>
+        <v>0.4440419759587692</v>
       </c>
       <c r="I7">
-        <v>4.016427071613551</v>
+        <v>17.80254161471952</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -609,28 +609,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>1.39877323625088</v>
+        <v>6.19996785797687</v>
       </c>
       <c r="C8">
-        <v>0.1808229335300934</v>
+        <v>0.8014854351063602</v>
       </c>
       <c r="D8">
-        <v>0.4083690928373497</v>
+        <v>1.81006841149528</v>
       </c>
       <c r="E8">
-        <v>0.4141088359270649</v>
+        <v>1.835509434919963</v>
       </c>
       <c r="F8">
-        <v>0.6296932405716736</v>
+        <v>2.791072741993363</v>
       </c>
       <c r="G8">
-        <v>0.6826724568330677</v>
+        <v>3.025899538395219</v>
       </c>
       <c r="H8">
-        <v>0.03339340063104566</v>
+        <v>0.1480139919862564</v>
       </c>
       <c r="I8">
-        <v>3.747833196581175</v>
+        <v>16.61201741187331</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -638,28 +638,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>1.567979676119937</v>
+        <v>6.94996396982891</v>
       </c>
       <c r="C9">
-        <v>0.09976437712005157</v>
+        <v>0.4421988607483366</v>
       </c>
       <c r="D9">
-        <v>0.8167381856746995</v>
+        <v>3.62013682299056</v>
       </c>
       <c r="E9">
-        <v>0.496930603112478</v>
+        <v>2.202611321903956</v>
       </c>
       <c r="F9">
-        <v>0.618347416417229</v>
+        <v>2.740783143038528</v>
       </c>
       <c r="G9">
-        <v>0.5006264683442494</v>
+        <v>2.21899299482316</v>
       </c>
       <c r="H9">
-        <v>0.03339340063104566</v>
+        <v>0.1480139919862564</v>
       </c>
       <c r="I9">
-        <v>4.133780127419691</v>
+        <v>18.32270110531971</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -667,28 +667,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>1.908648641722974</v>
+        <v>8.459956141691018</v>
       </c>
       <c r="C10">
-        <v>0.1496465656800773</v>
+        <v>0.6632982911225049</v>
       </c>
       <c r="D10">
-        <v>0.5104613660466873</v>
+        <v>2.2625855143691</v>
       </c>
       <c r="E10">
-        <v>0.4555197195197714</v>
+        <v>2.019060378411959</v>
       </c>
       <c r="F10">
-        <v>0.5389266473361169</v>
+        <v>2.388755950354681</v>
       </c>
       <c r="G10">
-        <v>0.3640919769776361</v>
+        <v>1.613813087144117</v>
       </c>
       <c r="H10">
-        <v>0.01113113354368189</v>
+        <v>0.04933799732875212</v>
       </c>
       <c r="I10">
-        <v>3.938426050826945</v>
+        <v>17.45680736042213</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -696,28 +696,28 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>1.863526924424559</v>
+        <v>8.259957178530476</v>
       </c>
       <c r="C11">
-        <v>0.04364691499002256</v>
+        <v>0.1934620015773973</v>
       </c>
       <c r="D11">
-        <v>0.5512982753304221</v>
+        <v>2.443592355518628</v>
       </c>
       <c r="E11">
-        <v>0.5383414867051844</v>
+        <v>2.386162265395952</v>
       </c>
       <c r="F11">
-        <v>0.2836456038611142</v>
+        <v>1.257239973870885</v>
       </c>
       <c r="G11">
-        <v>0.2275574856110225</v>
+        <v>1.008633179465073</v>
       </c>
       <c r="H11">
-        <v>0.02226226708736377</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="I11">
-        <v>3.530278958009688</v>
+        <v>15.64772294901592</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -725,28 +725,28 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>1.642430509662323</v>
+        <v>7.279962259043809</v>
       </c>
       <c r="C12">
-        <v>0.07482328284003867</v>
+        <v>0.3316491455612525</v>
       </c>
       <c r="D12">
-        <v>0.3879506381954823</v>
+        <v>1.719564990920516</v>
       </c>
       <c r="E12">
-        <v>0.7246904628723635</v>
+        <v>3.212141511109935</v>
       </c>
       <c r="F12">
-        <v>0.2042248347800022</v>
+        <v>0.9052127811870367</v>
       </c>
       <c r="G12">
-        <v>0.3868477255387384</v>
+        <v>1.714676405090624</v>
       </c>
       <c r="H12">
-        <v>0.02226226708736377</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="I12">
-        <v>3.443229720976312</v>
+        <v>15.26188308757068</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,28 +754,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>1.290481114734682</v>
+        <v>5.719970346391564</v>
       </c>
       <c r="C13">
-        <v>0.03741164142001933</v>
+        <v>0.1658245727806262</v>
       </c>
       <c r="D13">
-        <v>0.3062768196280122</v>
+        <v>1.35755130862146</v>
       </c>
       <c r="E13">
-        <v>0.5797523702978908</v>
+        <v>2.569713208887948</v>
       </c>
       <c r="F13">
-        <v>0.1815331864711131</v>
+        <v>0.8046335832773662</v>
       </c>
       <c r="G13">
-        <v>0.2048017370499203</v>
+        <v>0.9077698615185654</v>
       </c>
       <c r="H13">
-        <v>0.01113113354368189</v>
+        <v>0.04933799732875212</v>
       </c>
       <c r="I13">
-        <v>2.611388003145319</v>
+        <v>11.57480087880628</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,25 +783,25 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>1.012982553349427</v>
+        <v>4.489976722954217</v>
       </c>
       <c r="C14">
-        <v>0.05611746213002901</v>
+        <v>0.2487368591709393</v>
       </c>
       <c r="D14">
-        <v>0.2858583649861449</v>
+        <v>1.267047888046696</v>
       </c>
       <c r="E14">
-        <v>0.6625741374833036</v>
+        <v>2.936815095871942</v>
       </c>
       <c r="F14">
-        <v>0.119131153621668</v>
+        <v>0.5280407890257716</v>
       </c>
       <c r="G14">
-        <v>0.1365344913666135</v>
+        <v>0.6051799076790437</v>
       </c>
       <c r="I14">
-        <v>2.273198162937186</v>
+        <v>10.07579726274861</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -809,28 +809,28 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>0.665545330151628</v>
+        <v>2.949984706618028</v>
       </c>
       <c r="C15">
-        <v>0.02494109428001289</v>
+        <v>0.1105497151870842</v>
       </c>
       <c r="D15">
-        <v>0.122510727851205</v>
+        <v>0.5430205234485838</v>
       </c>
       <c r="E15">
-        <v>0.3726979523343584</v>
+        <v>1.651958491427967</v>
       </c>
       <c r="F15">
-        <v>0.08509368115833427</v>
+        <v>0.3771719921612653</v>
       </c>
       <c r="G15">
-        <v>0.1592902399277158</v>
+        <v>0.7060432256255511</v>
       </c>
       <c r="H15">
-        <v>0.01113113354368189</v>
+        <v>0.04933799732875212</v>
       </c>
       <c r="I15">
-        <v>1.441210159246936</v>
+        <v>6.388066651797232</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -838,25 +838,25 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>0.3451811373328784</v>
+        <v>1.529992068178162</v>
       </c>
       <c r="C16">
-        <v>0.06858800927003544</v>
+        <v>0.3040117167644815</v>
       </c>
       <c r="D16">
-        <v>0.1633476371349399</v>
+        <v>0.724027364598112</v>
       </c>
       <c r="E16">
-        <v>0.1656435343708259</v>
+        <v>0.7342037739679854</v>
       </c>
       <c r="F16">
-        <v>0.1021124173900011</v>
+        <v>0.4526063905935184</v>
       </c>
       <c r="G16">
-        <v>0.1137787428055112</v>
+        <v>0.5043165897325365</v>
       </c>
       <c r="I16">
-        <v>0.958651478304192</v>
+        <v>4.249157903834796</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -864,22 +864,22 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>0.2368890158166812</v>
+        <v>1.049994556592857</v>
       </c>
       <c r="C17">
-        <v>0.03117636785001611</v>
+        <v>0.1381871439838552</v>
       </c>
       <c r="D17">
-        <v>0.04083690928373497</v>
+        <v>0.181006841149528</v>
       </c>
       <c r="F17">
-        <v>0.05105620869500056</v>
+        <v>0.2263031952967592</v>
       </c>
       <c r="G17">
-        <v>0.1137787428055112</v>
+        <v>0.5043165897325365</v>
       </c>
       <c r="I17">
-        <v>0.4737372444509441</v>
+        <v>2.099808326755536</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -887,28 +887,28 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>0.1917672985182658</v>
+        <v>0.8499955934323126</v>
       </c>
       <c r="C18">
-        <v>0.06235273570003222</v>
+        <v>0.2763742879677104</v>
       </c>
       <c r="D18">
-        <v>0.08167381856746994</v>
+        <v>0.362013682299056</v>
       </c>
       <c r="E18">
-        <v>0.02070544179635324</v>
+        <v>0.09177547174599818</v>
       </c>
       <c r="F18">
-        <v>0.06807494492666741</v>
+        <v>0.3017375937290123</v>
       </c>
       <c r="G18">
-        <v>0.09102299424440903</v>
+        <v>0.4034532717860291</v>
       </c>
       <c r="H18">
-        <v>0.02226226708736377</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="I18">
-        <v>0.5378595008405616</v>
+        <v>2.384025895617623</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -916,22 +916,22 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>0.1060360356512763</v>
+        <v>0.4699975634272788</v>
       </c>
       <c r="C19">
-        <v>0.01870582071000967</v>
+        <v>0.08291228639031312</v>
       </c>
       <c r="D19">
-        <v>0.08167381856746994</v>
+        <v>0.362013682299056</v>
       </c>
       <c r="F19">
-        <v>0.07374785700388971</v>
+        <v>0.3268823932064299</v>
       </c>
       <c r="G19">
-        <v>0.1592902399277158</v>
+        <v>0.7060432256255511</v>
       </c>
       <c r="I19">
-        <v>0.4394537718603614</v>
+        <v>1.947849150948629</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -939,25 +939,25 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>0.1037799497863555</v>
+        <v>0.4599976152692518</v>
       </c>
       <c r="C20">
-        <v>0.01870582071000967</v>
+        <v>0.08291228639031312</v>
       </c>
       <c r="D20">
-        <v>0.06125536392560248</v>
+        <v>0.2715102617242919</v>
       </c>
       <c r="E20">
-        <v>0.08282176718541295</v>
+        <v>0.3671018869839927</v>
       </c>
       <c r="F20">
-        <v>0.04538329661777827</v>
+        <v>0.2011583958193416</v>
       </c>
       <c r="G20">
-        <v>0.04551149712220452</v>
+        <v>0.2017266358930146</v>
       </c>
       <c r="I20">
-        <v>0.3574576953473634</v>
+        <v>1.584407082080206</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -965,25 +965,25 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>0.2707303037904928</v>
+        <v>1.199993778963265</v>
       </c>
       <c r="C21">
-        <v>0.006235273570003223</v>
+        <v>0.02763742879677104</v>
       </c>
       <c r="D21">
-        <v>0.08167381856746994</v>
+        <v>0.362013682299056</v>
       </c>
       <c r="E21">
-        <v>0.04141088359270648</v>
+        <v>0.1835509434919964</v>
       </c>
       <c r="F21">
-        <v>0.07374785700388971</v>
+        <v>0.3268823932064299</v>
       </c>
       <c r="G21">
-        <v>0.04551149712220452</v>
+        <v>0.2017266358930146</v>
       </c>
       <c r="I21">
-        <v>0.5193096336467666</v>
+        <v>2.301804862650533</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -991,25 +991,25 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>0.7806057092625872</v>
+        <v>3.459982062677413</v>
       </c>
       <c r="C22">
-        <v>0.04988218856002578</v>
+        <v>0.2210994303741683</v>
       </c>
       <c r="D22">
-        <v>0.3062768196280122</v>
+        <v>1.35755130862146</v>
       </c>
       <c r="E22">
-        <v>0.1863489761671792</v>
+        <v>0.8259792457139835</v>
       </c>
       <c r="F22">
-        <v>0.2382623072433359</v>
+        <v>1.056081578051543</v>
       </c>
       <c r="G22">
-        <v>0.3640919769776361</v>
+        <v>1.613813087144117</v>
       </c>
       <c r="I22">
-        <v>1.925467977838776</v>
+        <v>8.534506712582685</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1017,28 +1017,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>1.236335053976584</v>
+        <v>5.479971590598911</v>
       </c>
       <c r="C23">
-        <v>0.08729382998004512</v>
+        <v>0.3869240031547946</v>
       </c>
       <c r="D23">
-        <v>0.3266952742698798</v>
+        <v>1.448054729196224</v>
       </c>
       <c r="E23">
-        <v>0.7246904628723635</v>
+        <v>3.212141511109935</v>
       </c>
       <c r="F23">
-        <v>0.4254684057916713</v>
+        <v>1.885859960806327</v>
       </c>
       <c r="G23">
-        <v>0.7509397025163743</v>
+        <v>3.32848949223474</v>
       </c>
       <c r="H23">
-        <v>0.05565566771840942</v>
+        <v>0.2466899866437607</v>
       </c>
       <c r="I23">
-        <v>3.607078397125327</v>
+        <v>15.98813127374469</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1046,28 +1046,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>1.628893994472799</v>
+        <v>7.219962570095645</v>
       </c>
       <c r="C24">
-        <v>0.05611746213002901</v>
+        <v>0.2487368591709393</v>
       </c>
       <c r="D24">
-        <v>0.5104613660466873</v>
+        <v>2.2625855143691</v>
       </c>
       <c r="E24">
-        <v>0.786806788261423</v>
+        <v>3.48746792634793</v>
       </c>
       <c r="F24">
-        <v>0.4651787903322273</v>
+        <v>2.061873557148251</v>
       </c>
       <c r="G24">
-        <v>0.455114971222045</v>
+        <v>2.017266358930146</v>
       </c>
       <c r="H24">
-        <v>0.02226226708736377</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="I24">
-        <v>3.924835639552575</v>
+        <v>17.39656878071952</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1075,28 +1075,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>1.646942681392164</v>
+        <v>7.299962155359864</v>
       </c>
       <c r="C25">
-        <v>0.06235273570003222</v>
+        <v>0.2763742879677104</v>
       </c>
       <c r="D25">
-        <v>0.4083690928373497</v>
+        <v>1.81006841149528</v>
       </c>
       <c r="E25">
-        <v>0.5383414867051844</v>
+        <v>2.386162265395952</v>
       </c>
       <c r="F25">
-        <v>0.3517205487877815</v>
+        <v>1.558977567599897</v>
       </c>
       <c r="G25">
-        <v>0.6826724568330677</v>
+        <v>3.025899538395219</v>
       </c>
       <c r="H25">
-        <v>0.06678680126209131</v>
+        <v>0.2960279839725128</v>
       </c>
       <c r="I25">
-        <v>3.757185803517671</v>
+        <v>16.65347221018643</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1104,28 +1104,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>1.452919297008978</v>
+        <v>6.439966613769521</v>
       </c>
       <c r="C26">
-        <v>0.1309407449700677</v>
+        <v>0.5803860047321919</v>
       </c>
       <c r="D26">
-        <v>0.7350643671072294</v>
+        <v>3.258123140691503</v>
       </c>
       <c r="E26">
-        <v>0.5797523702978908</v>
+        <v>2.569713208887948</v>
       </c>
       <c r="F26">
-        <v>0.6240203284944512</v>
+        <v>2.765927942515946</v>
       </c>
       <c r="G26">
-        <v>0.9102299424440899</v>
+        <v>4.034532717860292</v>
       </c>
       <c r="H26">
-        <v>0.02226226708736377</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="I26">
-        <v>4.455189317410071</v>
+        <v>19.74732562311491</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1133,28 +1133,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>1.254383740895949</v>
+        <v>5.559971175863128</v>
       </c>
       <c r="C27">
-        <v>0.1309407449700677</v>
+        <v>0.5803860047321919</v>
       </c>
       <c r="D27">
-        <v>0.5308798206885547</v>
+        <v>2.353088934943864</v>
       </c>
       <c r="E27">
-        <v>0.3519925105380051</v>
+        <v>1.560183019681969</v>
       </c>
       <c r="F27">
-        <v>0.7318056579616747</v>
+        <v>3.243679132586882</v>
       </c>
       <c r="G27">
-        <v>0.6371609597108631</v>
+        <v>2.824172902502204</v>
       </c>
       <c r="H27">
-        <v>0.01113113354368189</v>
+        <v>0.04933799732875212</v>
       </c>
       <c r="I27">
-        <v>3.648294568308796</v>
+        <v>16.17081916763899</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1162,28 +1162,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>1.423590180765008</v>
+        <v>6.309967287715169</v>
       </c>
       <c r="C28">
-        <v>0.1808229335300934</v>
+        <v>0.8014854351063602</v>
       </c>
       <c r="D28">
-        <v>0.5308798206885547</v>
+        <v>2.353088934943864</v>
       </c>
       <c r="E28">
-        <v>0.4762251613161247</v>
+        <v>2.110835850157958</v>
       </c>
       <c r="F28">
-        <v>0.5672912077222284</v>
+        <v>2.514479947741769</v>
       </c>
       <c r="G28">
-        <v>0.9102299424440899</v>
+        <v>4.034532717860292</v>
       </c>
       <c r="H28">
-        <v>0.02226226708736377</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="I28">
-        <v>4.111301513553462</v>
+        <v>18.22306616818292</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1191,28 +1191,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>1.297249372329444</v>
+        <v>5.749970190865643</v>
       </c>
       <c r="C29">
-        <v>0.1558818392500806</v>
+        <v>0.690935719919276</v>
       </c>
       <c r="D29">
-        <v>0.5717167299722897</v>
+        <v>2.534095776093392</v>
       </c>
       <c r="E29">
-        <v>0.3519925105380051</v>
+        <v>1.560183019681969</v>
       </c>
       <c r="F29">
-        <v>0.4651787903322273</v>
+        <v>2.061873557148251</v>
       </c>
       <c r="G29">
-        <v>0.3868477255387384</v>
+        <v>1.714676405090624</v>
       </c>
       <c r="H29">
-        <v>0.03339340063104566</v>
+        <v>0.1480139919862564</v>
       </c>
       <c r="I29">
-        <v>3.262260368591831</v>
+        <v>14.45974866078541</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1220,28 +1220,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>1.310785887518968</v>
+        <v>5.809969879813808</v>
       </c>
       <c r="C30">
-        <v>0.09352910355004836</v>
+        <v>0.4145614319515656</v>
       </c>
       <c r="D30">
-        <v>0.5104613660466873</v>
+        <v>2.2625855143691</v>
       </c>
       <c r="E30">
-        <v>0.3105816269452986</v>
+        <v>1.376632076189973</v>
       </c>
       <c r="F30">
-        <v>0.5672912077222284</v>
+        <v>2.514479947741769</v>
       </c>
       <c r="G30">
-        <v>0.7509397025163743</v>
+        <v>3.32848949223474</v>
       </c>
       <c r="H30">
-        <v>0.04452453417472754</v>
+        <v>0.1973519893150085</v>
       </c>
       <c r="I30">
-        <v>3.588113428474333</v>
+        <v>15.90407033161596</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1249,28 +1249,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>1.31529805924881</v>
+        <v>5.829969776129863</v>
       </c>
       <c r="C31">
-        <v>0.1247054714000644</v>
+        <v>0.5527485759354208</v>
       </c>
       <c r="D31">
-        <v>0.6533905485397595</v>
+        <v>2.896109458392448</v>
       </c>
       <c r="E31">
-        <v>0.3312870687416518</v>
+        <v>1.468407547935971</v>
       </c>
       <c r="F31">
-        <v>0.6637307130350072</v>
+        <v>2.94194153885787</v>
       </c>
       <c r="G31">
-        <v>0.4778707197831473</v>
+        <v>2.118129676876653</v>
       </c>
       <c r="H31">
-        <v>0.02226226708736377</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="I31">
-        <v>3.588544847835804</v>
+        <v>15.90598256878573</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1278,28 +1278,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>1.376212377601672</v>
+        <v>6.0999683763966</v>
       </c>
       <c r="C32">
-        <v>0.1434112921100741</v>
+        <v>0.6356608623257338</v>
       </c>
       <c r="D32">
-        <v>0.5104613660466873</v>
+        <v>2.2625855143691</v>
       </c>
       <c r="E32">
-        <v>0.4348142777234182</v>
+        <v>1.927284906665961</v>
       </c>
       <c r="F32">
-        <v>0.6637307130350072</v>
+        <v>2.94194153885787</v>
       </c>
       <c r="G32">
-        <v>0.5233822169053518</v>
+        <v>2.319856312769667</v>
       </c>
       <c r="H32">
-        <v>0.03339340063104566</v>
+        <v>0.1480139919862564</v>
       </c>
       <c r="I32">
-        <v>3.685405644053256</v>
+        <v>16.33531150337119</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1307,28 +1307,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>1.567979676119937</v>
+        <v>6.94996396982891</v>
       </c>
       <c r="C33">
-        <v>0.09976437712005157</v>
+        <v>0.4421988607483366</v>
       </c>
       <c r="D33">
-        <v>0.8167381856746995</v>
+        <v>3.62013682299056</v>
       </c>
       <c r="E33">
-        <v>0.496930603112478</v>
+        <v>2.202611321903956</v>
       </c>
       <c r="F33">
-        <v>0.618347416417229</v>
+        <v>2.740783143038528</v>
       </c>
       <c r="G33">
-        <v>0.5006264683442494</v>
+        <v>2.21899299482316</v>
       </c>
       <c r="H33">
-        <v>0.03339340063104566</v>
+        <v>0.1480139919862564</v>
       </c>
       <c r="I33">
-        <v>4.133780127419691</v>
+        <v>18.32270110531971</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1336,28 +1336,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>1.908648641722974</v>
+        <v>8.459956141691018</v>
       </c>
       <c r="C34">
-        <v>0.1496465656800773</v>
+        <v>0.6632982911225049</v>
       </c>
       <c r="D34">
-        <v>0.5104613660466873</v>
+        <v>2.2625855143691</v>
       </c>
       <c r="E34">
-        <v>0.4555197195197714</v>
+        <v>2.019060378411959</v>
       </c>
       <c r="F34">
-        <v>0.5389266473361169</v>
+        <v>2.388755950354681</v>
       </c>
       <c r="G34">
-        <v>0.3640919769776361</v>
+        <v>1.613813087144117</v>
       </c>
       <c r="H34">
-        <v>0.01113113354368189</v>
+        <v>0.04933799732875212</v>
       </c>
       <c r="I34">
-        <v>3.938426050826945</v>
+        <v>17.45680736042213</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1365,28 +1365,28 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>1.863526924424559</v>
+        <v>8.259957178530476</v>
       </c>
       <c r="C35">
-        <v>0.04364691499002256</v>
+        <v>0.1934620015773973</v>
       </c>
       <c r="D35">
-        <v>0.5512982753304221</v>
+        <v>2.443592355518628</v>
       </c>
       <c r="E35">
-        <v>0.5383414867051844</v>
+        <v>2.386162265395952</v>
       </c>
       <c r="F35">
-        <v>0.2836456038611142</v>
+        <v>1.257239973870885</v>
       </c>
       <c r="G35">
-        <v>0.2275574856110225</v>
+        <v>1.008633179465073</v>
       </c>
       <c r="H35">
-        <v>0.02226226708736377</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="I35">
-        <v>3.530278958009688</v>
+        <v>15.64772294901592</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1394,28 +1394,28 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>1.642430509662323</v>
+        <v>7.279962259043809</v>
       </c>
       <c r="C36">
-        <v>0.07482328284003867</v>
+        <v>0.3316491455612525</v>
       </c>
       <c r="D36">
-        <v>0.3879506381954823</v>
+        <v>1.719564990920516</v>
       </c>
       <c r="E36">
-        <v>0.7246904628723635</v>
+        <v>3.212141511109935</v>
       </c>
       <c r="F36">
-        <v>0.2042248347800022</v>
+        <v>0.9052127811870367</v>
       </c>
       <c r="G36">
-        <v>0.3868477255387384</v>
+        <v>1.714676405090624</v>
       </c>
       <c r="H36">
-        <v>0.02226226708736377</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="I36">
-        <v>3.443229720976312</v>
+        <v>15.26188308757068</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1423,28 +1423,28 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>1.290481114734682</v>
+        <v>5.719970346391564</v>
       </c>
       <c r="C37">
-        <v>0.03741164142001933</v>
+        <v>0.1658245727806262</v>
       </c>
       <c r="D37">
-        <v>0.3062768196280122</v>
+        <v>1.35755130862146</v>
       </c>
       <c r="E37">
-        <v>0.5797523702978908</v>
+        <v>2.569713208887948</v>
       </c>
       <c r="F37">
-        <v>0.1815331864711131</v>
+        <v>0.8046335832773662</v>
       </c>
       <c r="G37">
-        <v>0.2048017370499203</v>
+        <v>0.9077698615185654</v>
       </c>
       <c r="H37">
-        <v>0.01113113354368189</v>
+        <v>0.04933799732875212</v>
       </c>
       <c r="I37">
-        <v>2.611388003145319</v>
+        <v>11.57480087880628</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1452,25 +1452,25 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>1.012982553349427</v>
+        <v>4.489976722954217</v>
       </c>
       <c r="C38">
-        <v>0.05611746213002901</v>
+        <v>0.2487368591709393</v>
       </c>
       <c r="D38">
-        <v>0.2858583649861449</v>
+        <v>1.267047888046696</v>
       </c>
       <c r="E38">
-        <v>0.6625741374833036</v>
+        <v>2.936815095871942</v>
       </c>
       <c r="F38">
-        <v>0.119131153621668</v>
+        <v>0.5280407890257716</v>
       </c>
       <c r="G38">
-        <v>0.1365344913666135</v>
+        <v>0.6051799076790437</v>
       </c>
       <c r="I38">
-        <v>2.273198162937186</v>
+        <v>10.07579726274861</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1478,28 +1478,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>0.665545330151628</v>
+        <v>2.949984706618028</v>
       </c>
       <c r="C39">
-        <v>0.02494109428001289</v>
+        <v>0.1105497151870842</v>
       </c>
       <c r="D39">
-        <v>0.122510727851205</v>
+        <v>0.5430205234485838</v>
       </c>
       <c r="E39">
-        <v>0.3726979523343584</v>
+        <v>1.651958491427967</v>
       </c>
       <c r="F39">
-        <v>0.08509368115833427</v>
+        <v>0.3771719921612653</v>
       </c>
       <c r="G39">
-        <v>0.1592902399277158</v>
+        <v>0.7060432256255511</v>
       </c>
       <c r="H39">
-        <v>0.01113113354368189</v>
+        <v>0.04933799732875212</v>
       </c>
       <c r="I39">
-        <v>1.441210159246936</v>
+        <v>6.388066651797232</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1507,25 +1507,25 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>0.3451811373328784</v>
+        <v>1.529992068178162</v>
       </c>
       <c r="C40">
-        <v>0.06858800927003544</v>
+        <v>0.3040117167644815</v>
       </c>
       <c r="D40">
-        <v>0.1633476371349399</v>
+        <v>0.724027364598112</v>
       </c>
       <c r="E40">
-        <v>0.1656435343708259</v>
+        <v>0.7342037739679854</v>
       </c>
       <c r="F40">
-        <v>0.1021124173900011</v>
+        <v>0.4526063905935184</v>
       </c>
       <c r="G40">
-        <v>0.1137787428055112</v>
+        <v>0.5043165897325365</v>
       </c>
       <c r="I40">
-        <v>0.958651478304192</v>
+        <v>4.249157903834796</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1533,22 +1533,22 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>0.2368890158166812</v>
+        <v>1.049994556592857</v>
       </c>
       <c r="C41">
-        <v>0.03117636785001611</v>
+        <v>0.1381871439838552</v>
       </c>
       <c r="D41">
-        <v>0.04083690928373497</v>
+        <v>0.181006841149528</v>
       </c>
       <c r="F41">
-        <v>0.05105620869500056</v>
+        <v>0.2263031952967592</v>
       </c>
       <c r="G41">
-        <v>0.1137787428055112</v>
+        <v>0.5043165897325365</v>
       </c>
       <c r="I41">
-        <v>0.4737372444509441</v>
+        <v>2.099808326755536</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1556,28 +1556,28 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>0.1917672985182658</v>
+        <v>0.8499955934323126</v>
       </c>
       <c r="C42">
-        <v>0.06235273570003222</v>
+        <v>0.2763742879677104</v>
       </c>
       <c r="D42">
-        <v>0.08167381856746994</v>
+        <v>0.362013682299056</v>
       </c>
       <c r="E42">
-        <v>0.02070544179635324</v>
+        <v>0.09177547174599818</v>
       </c>
       <c r="F42">
-        <v>0.06807494492666741</v>
+        <v>0.3017375937290123</v>
       </c>
       <c r="G42">
-        <v>0.09102299424440903</v>
+        <v>0.4034532717860291</v>
       </c>
       <c r="H42">
-        <v>0.02226226708736377</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="I42">
-        <v>0.5378595008405616</v>
+        <v>2.384025895617623</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1585,22 +1585,22 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>0.1060360356512763</v>
+        <v>0.4699975634272788</v>
       </c>
       <c r="C43">
-        <v>0.01870582071000967</v>
+        <v>0.08291228639031312</v>
       </c>
       <c r="D43">
-        <v>0.08167381856746994</v>
+        <v>0.362013682299056</v>
       </c>
       <c r="F43">
-        <v>0.07374785700388971</v>
+        <v>0.3268823932064299</v>
       </c>
       <c r="G43">
-        <v>0.1592902399277158</v>
+        <v>0.7060432256255511</v>
       </c>
       <c r="I43">
-        <v>0.4394537718603614</v>
+        <v>1.947849150948629</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1608,25 +1608,25 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>0.1037799497863555</v>
+        <v>0.4599976152692518</v>
       </c>
       <c r="C44">
-        <v>0.01870582071000967</v>
+        <v>0.08291228639031312</v>
       </c>
       <c r="D44">
-        <v>0.06125536392560248</v>
+        <v>0.2715102617242919</v>
       </c>
       <c r="E44">
-        <v>0.08282176718541295</v>
+        <v>0.3671018869839927</v>
       </c>
       <c r="F44">
-        <v>0.04538329661777827</v>
+        <v>0.2011583958193416</v>
       </c>
       <c r="G44">
-        <v>0.04551149712220452</v>
+        <v>0.2017266358930146</v>
       </c>
       <c r="I44">
-        <v>0.3574576953473634</v>
+        <v>1.584407082080206</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1634,25 +1634,25 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>0.2707303037904928</v>
+        <v>1.199993778963265</v>
       </c>
       <c r="C45">
-        <v>0.006235273570003223</v>
+        <v>0.02763742879677104</v>
       </c>
       <c r="D45">
-        <v>0.08167381856746994</v>
+        <v>0.362013682299056</v>
       </c>
       <c r="E45">
-        <v>0.04141088359270648</v>
+        <v>0.1835509434919964</v>
       </c>
       <c r="F45">
-        <v>0.07374785700388971</v>
+        <v>0.3268823932064299</v>
       </c>
       <c r="G45">
-        <v>0.04551149712220452</v>
+        <v>0.2017266358930146</v>
       </c>
       <c r="I45">
-        <v>0.5193096336467666</v>
+        <v>2.301804862650533</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1660,25 +1660,25 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>0.7806057092625872</v>
+        <v>3.459982062677413</v>
       </c>
       <c r="C46">
-        <v>0.04988218856002578</v>
+        <v>0.2210994303741683</v>
       </c>
       <c r="D46">
-        <v>0.3062768196280122</v>
+        <v>1.35755130862146</v>
       </c>
       <c r="E46">
-        <v>0.1863489761671792</v>
+        <v>0.8259792457139835</v>
       </c>
       <c r="F46">
-        <v>0.2382623072433359</v>
+        <v>1.056081578051543</v>
       </c>
       <c r="G46">
-        <v>0.3640919769776361</v>
+        <v>1.613813087144117</v>
       </c>
       <c r="I46">
-        <v>1.925467977838776</v>
+        <v>8.534506712582685</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1686,28 +1686,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>1.236335053976584</v>
+        <v>5.479971590598911</v>
       </c>
       <c r="C47">
-        <v>0.08729382998004512</v>
+        <v>0.3869240031547946</v>
       </c>
       <c r="D47">
-        <v>0.3266952742698798</v>
+        <v>1.448054729196224</v>
       </c>
       <c r="E47">
-        <v>0.7246904628723635</v>
+        <v>3.212141511109935</v>
       </c>
       <c r="F47">
-        <v>0.4254684057916713</v>
+        <v>1.885859960806327</v>
       </c>
       <c r="G47">
-        <v>0.7509397025163743</v>
+        <v>3.32848949223474</v>
       </c>
       <c r="H47">
-        <v>0.05565566771840942</v>
+        <v>0.2466899866437607</v>
       </c>
       <c r="I47">
-        <v>3.607078397125327</v>
+        <v>15.98813127374469</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1715,28 +1715,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>1.628893994472799</v>
+        <v>7.219962570095645</v>
       </c>
       <c r="C48">
-        <v>0.05611746213002901</v>
+        <v>0.2487368591709393</v>
       </c>
       <c r="D48">
-        <v>0.5104613660466873</v>
+        <v>2.2625855143691</v>
       </c>
       <c r="E48">
-        <v>0.786806788261423</v>
+        <v>3.48746792634793</v>
       </c>
       <c r="F48">
-        <v>0.4651787903322273</v>
+        <v>2.061873557148251</v>
       </c>
       <c r="G48">
-        <v>0.455114971222045</v>
+        <v>2.017266358930146</v>
       </c>
       <c r="H48">
-        <v>0.02226226708736377</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="I48">
-        <v>3.924835639552575</v>
+        <v>17.39656878071952</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1744,28 +1744,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>1.646942681392164</v>
+        <v>7.299962155359864</v>
       </c>
       <c r="C49">
-        <v>0.06235273570003222</v>
+        <v>0.2763742879677104</v>
       </c>
       <c r="D49">
-        <v>0.4083690928373497</v>
+        <v>1.81006841149528</v>
       </c>
       <c r="E49">
-        <v>0.5383414867051844</v>
+        <v>2.386162265395952</v>
       </c>
       <c r="F49">
-        <v>0.3517205487877815</v>
+        <v>1.558977567599897</v>
       </c>
       <c r="G49">
-        <v>0.6826724568330677</v>
+        <v>3.025899538395219</v>
       </c>
       <c r="H49">
-        <v>0.06678680126209131</v>
+        <v>0.2960279839725128</v>
       </c>
       <c r="I49">
-        <v>3.757185803517671</v>
+        <v>16.65347221018643</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_W_여름_배출량/경기동로_W_여름_배출량_PM25_재비산.xlsx
+++ b/output/경기동로_W_여름_배출량/경기동로_W_여름_배출량_PM25_재비산.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>6.439966613769521</v>
+        <v>1.431103691948782</v>
       </c>
       <c r="C2">
-        <v>0.5803860047321919</v>
+        <v>0.1289746677182648</v>
       </c>
       <c r="D2">
-        <v>3.258123140691503</v>
+        <v>0.724027364598112</v>
       </c>
       <c r="E2">
-        <v>2.569713208887948</v>
+        <v>0.5710473797528773</v>
       </c>
       <c r="F2">
-        <v>2.765927942515946</v>
+        <v>0.6146506538924323</v>
       </c>
       <c r="G2">
-        <v>4.034532717860292</v>
+        <v>0.896562826191176</v>
       </c>
       <c r="H2">
-        <v>0.09867599465750425</v>
+        <v>0.02192799881277873</v>
       </c>
       <c r="I2">
-        <v>19.74732562311491</v>
+        <v>4.388294582914424</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,25 +467,25 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>7.399961636940136</v>
+        <v>1.644435919320031</v>
       </c>
       <c r="C3">
-        <v>0.690935719919276</v>
+        <v>0.1535412710931724</v>
       </c>
       <c r="D3">
-        <v>2.172082093794335</v>
+        <v>0.4826849097320746</v>
       </c>
       <c r="E3">
-        <v>1.468407547935971</v>
+        <v>0.3263127884302157</v>
       </c>
       <c r="F3">
-        <v>3.469982327883641</v>
+        <v>0.7711071839741424</v>
       </c>
       <c r="G3">
-        <v>6.253525712683452</v>
+        <v>1.389672380596322</v>
       </c>
       <c r="I3">
-        <v>21.45489503915681</v>
+        <v>4.767754453145958</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -493,28 +493,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>6.02996873929041</v>
+        <v>1.339993053175646</v>
       </c>
       <c r="C4">
-        <v>0.4974737183418786</v>
+        <v>0.1105497151870842</v>
       </c>
       <c r="D4">
-        <v>1.719564990920516</v>
+        <v>0.3821255535378925</v>
       </c>
       <c r="E4">
-        <v>2.47793773714195</v>
+        <v>0.5506528304759889</v>
       </c>
       <c r="F4">
-        <v>2.715638343561111</v>
+        <v>0.6034751874580245</v>
       </c>
       <c r="G4">
-        <v>4.135396035806799</v>
+        <v>0.918976896845955</v>
       </c>
       <c r="H4">
-        <v>0.09867599465750425</v>
+        <v>0.02192799881277873</v>
       </c>
       <c r="I4">
-        <v>17.67465555972017</v>
+        <v>3.92770123549337</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -522,28 +522,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>6.899964229038773</v>
+        <v>1.533325384230839</v>
       </c>
       <c r="C5">
-        <v>0.6632982911225049</v>
+        <v>0.1473996202494456</v>
       </c>
       <c r="D5">
-        <v>2.624599196668157</v>
+        <v>0.5832442659262569</v>
       </c>
       <c r="E5">
-        <v>1.651958491427967</v>
+        <v>0.3671018869839927</v>
       </c>
       <c r="F5">
-        <v>2.640203945128857</v>
+        <v>0.5867119878064129</v>
       </c>
       <c r="G5">
-        <v>2.925036220448711</v>
+        <v>0.6500080489886025</v>
       </c>
       <c r="H5">
-        <v>0.1973519893150085</v>
+        <v>0.04385599762555745</v>
       </c>
       <c r="I5">
-        <v>17.60241236314998</v>
+        <v>3.911647191811108</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -551,28 +551,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>6.55996599166585</v>
+        <v>1.457770220370189</v>
       </c>
       <c r="C6">
-        <v>0.9120351502934443</v>
+        <v>0.2026744778429876</v>
       </c>
       <c r="D6">
-        <v>2.172082093794335</v>
+        <v>0.4826849097320746</v>
       </c>
       <c r="E6">
-        <v>1.560183019681969</v>
+        <v>0.3467073377071043</v>
       </c>
       <c r="F6">
-        <v>2.615059145651439</v>
+        <v>0.5811242545892089</v>
       </c>
       <c r="G6">
-        <v>3.933669399913784</v>
+        <v>0.8741487555363965</v>
       </c>
       <c r="H6">
-        <v>0.04933799732875212</v>
+        <v>0.01096399940638936</v>
       </c>
       <c r="I6">
-        <v>17.80233279832957</v>
+        <v>3.95607395518435</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -580,28 +580,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>6.429966665611493</v>
+        <v>1.428881481246999</v>
       </c>
       <c r="C7">
-        <v>0.5251111471386498</v>
+        <v>0.116691366030811</v>
       </c>
       <c r="D7">
-        <v>1.719564990920516</v>
+        <v>0.3821255535378925</v>
       </c>
       <c r="E7">
-        <v>2.110835850157958</v>
+        <v>0.469074633368435</v>
       </c>
       <c r="F7">
-        <v>2.94194153885787</v>
+        <v>0.65376478641286</v>
       </c>
       <c r="G7">
-        <v>3.631079446074262</v>
+        <v>0.8069065435720583</v>
       </c>
       <c r="H7">
-        <v>0.4440419759587692</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="I7">
-        <v>17.80254161471952</v>
+        <v>3.95612035882656</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -609,28 +609,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>6.19996785797687</v>
+        <v>1.37777063510597</v>
       </c>
       <c r="C8">
-        <v>0.8014854351063602</v>
+        <v>0.17810787446808</v>
       </c>
       <c r="D8">
-        <v>1.81006841149528</v>
+        <v>0.4022374247767288</v>
       </c>
       <c r="E8">
-        <v>1.835509434919963</v>
+        <v>0.4078909855377696</v>
       </c>
       <c r="F8">
-        <v>2.791072741993363</v>
+        <v>0.6202383871096365</v>
       </c>
       <c r="G8">
-        <v>3.025899538395219</v>
+        <v>0.6724221196433818</v>
       </c>
       <c r="H8">
-        <v>0.1480139919862564</v>
+        <v>0.03289199821916809</v>
       </c>
       <c r="I8">
-        <v>16.61201741187331</v>
+        <v>3.691559424860735</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -638,28 +638,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>6.94996396982891</v>
+        <v>1.544436437739758</v>
       </c>
       <c r="C9">
-        <v>0.4421988607483366</v>
+        <v>0.09826641349963036</v>
       </c>
       <c r="D9">
-        <v>3.62013682299056</v>
+        <v>0.8044748495534576</v>
       </c>
       <c r="E9">
-        <v>2.202611321903956</v>
+        <v>0.4894691826453235</v>
       </c>
       <c r="F9">
-        <v>2.740783143038528</v>
+        <v>0.6090629206752285</v>
       </c>
       <c r="G9">
-        <v>2.21899299482316</v>
+        <v>0.4931095544051468</v>
       </c>
       <c r="H9">
-        <v>0.1480139919862564</v>
+        <v>0.03289199821916809</v>
       </c>
       <c r="I9">
-        <v>18.32270110531971</v>
+        <v>4.071711356737713</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -667,28 +667,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>8.459956141691018</v>
+        <v>1.879990253709115</v>
       </c>
       <c r="C10">
-        <v>0.6632982911225049</v>
+        <v>0.1473996202494456</v>
       </c>
       <c r="D10">
-        <v>2.2625855143691</v>
+        <v>0.5027967809709112</v>
       </c>
       <c r="E10">
-        <v>2.019060378411959</v>
+        <v>0.4486800840915466</v>
       </c>
       <c r="F10">
-        <v>2.388755950354681</v>
+        <v>0.5308346556343735</v>
       </c>
       <c r="G10">
-        <v>1.613813087144117</v>
+        <v>0.3586251304764703</v>
       </c>
       <c r="H10">
-        <v>0.04933799732875212</v>
+        <v>0.01096399940638936</v>
       </c>
       <c r="I10">
-        <v>17.45680736042213</v>
+        <v>3.879290524538252</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -696,28 +696,28 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>8.259957178530476</v>
+        <v>1.835546039673439</v>
       </c>
       <c r="C11">
-        <v>0.1934620015773973</v>
+        <v>0.04299155590608828</v>
       </c>
       <c r="D11">
-        <v>2.443592355518628</v>
+        <v>0.5430205234485838</v>
       </c>
       <c r="E11">
-        <v>2.386162265395952</v>
+        <v>0.5302582811991005</v>
       </c>
       <c r="F11">
-        <v>1.257239973870885</v>
+        <v>0.2793866608601966</v>
       </c>
       <c r="G11">
-        <v>1.008633179465073</v>
+        <v>0.224140706547794</v>
       </c>
       <c r="H11">
-        <v>0.09867599465750425</v>
+        <v>0.02192799881277873</v>
       </c>
       <c r="I11">
-        <v>15.64772294901592</v>
+        <v>3.47727176644798</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -725,28 +725,28 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>7.279962259043809</v>
+        <v>1.617769390898625</v>
       </c>
       <c r="C12">
-        <v>0.3316491455612525</v>
+        <v>0.07369981012472279</v>
       </c>
       <c r="D12">
-        <v>1.719564990920516</v>
+        <v>0.3821255535378925</v>
       </c>
       <c r="E12">
-        <v>3.212141511109935</v>
+        <v>0.7138092246910966</v>
       </c>
       <c r="F12">
-        <v>0.9052127811870367</v>
+        <v>0.2011583958193416</v>
       </c>
       <c r="G12">
-        <v>1.714676405090624</v>
+        <v>0.3810392011312497</v>
       </c>
       <c r="H12">
-        <v>0.09867599465750425</v>
+        <v>0.02192799881277873</v>
       </c>
       <c r="I12">
-        <v>15.26188308757068</v>
+        <v>3.391529575015707</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,28 +754,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>5.719970346391564</v>
+        <v>1.271104521420347</v>
       </c>
       <c r="C13">
-        <v>0.1658245727806262</v>
+        <v>0.0368499050623614</v>
       </c>
       <c r="D13">
-        <v>1.35755130862146</v>
+        <v>0.3016780685825466</v>
       </c>
       <c r="E13">
-        <v>2.569713208887948</v>
+        <v>0.5710473797528773</v>
       </c>
       <c r="F13">
-        <v>0.8046335832773662</v>
+        <v>0.1788074629505258</v>
       </c>
       <c r="G13">
-        <v>0.9077698615185654</v>
+        <v>0.2017266358930146</v>
       </c>
       <c r="H13">
-        <v>0.04933799732875212</v>
+        <v>0.01096399940638936</v>
       </c>
       <c r="I13">
-        <v>11.57480087880628</v>
+        <v>2.572177973068063</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,25 +783,25 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>4.489976722954217</v>
+        <v>0.9977726051009373</v>
       </c>
       <c r="C14">
-        <v>0.2487368591709393</v>
+        <v>0.05527485759354208</v>
       </c>
       <c r="D14">
-        <v>1.267047888046696</v>
+        <v>0.2815661973437104</v>
       </c>
       <c r="E14">
-        <v>2.936815095871942</v>
+        <v>0.6526255768604313</v>
       </c>
       <c r="F14">
-        <v>0.5280407890257716</v>
+        <v>0.1173423975612825</v>
       </c>
       <c r="G14">
-        <v>0.6051799076790437</v>
+        <v>0.1344844239286763</v>
       </c>
       <c r="I14">
-        <v>10.07579726274861</v>
+        <v>2.23906605838858</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -809,28 +809,28 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>2.949984706618028</v>
+        <v>0.655552157026228</v>
       </c>
       <c r="C15">
-        <v>0.1105497151870842</v>
+        <v>0.02456660337490759</v>
       </c>
       <c r="D15">
-        <v>0.5430205234485838</v>
+        <v>0.1206712274330187</v>
       </c>
       <c r="E15">
-        <v>1.651958491427967</v>
+        <v>0.3671018869839927</v>
       </c>
       <c r="F15">
-        <v>0.3771719921612653</v>
+        <v>0.08381599825805897</v>
       </c>
       <c r="G15">
-        <v>0.7060432256255511</v>
+        <v>0.1568984945834558</v>
       </c>
       <c r="H15">
-        <v>0.04933799732875212</v>
+        <v>0.01096399940638936</v>
       </c>
       <c r="I15">
-        <v>6.388066651797232</v>
+        <v>1.419570367066051</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -838,25 +838,25 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>1.529992068178162</v>
+        <v>0.339998237372925</v>
       </c>
       <c r="C16">
-        <v>0.3040117167644815</v>
+        <v>0.06755815928099589</v>
       </c>
       <c r="D16">
-        <v>0.724027364598112</v>
+        <v>0.1608949699106916</v>
       </c>
       <c r="E16">
-        <v>0.7342037739679854</v>
+        <v>0.1631563942151078</v>
       </c>
       <c r="F16">
-        <v>0.4526063905935184</v>
+        <v>0.1005791979096708</v>
       </c>
       <c r="G16">
-        <v>0.5043165897325365</v>
+        <v>0.112070353273897</v>
       </c>
       <c r="I16">
-        <v>4.249157903834796</v>
+        <v>0.9442573119632881</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -864,22 +864,22 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>1.049994556592857</v>
+        <v>0.2333321236873015</v>
       </c>
       <c r="C17">
-        <v>0.1381871439838552</v>
+        <v>0.03070825421863449</v>
       </c>
       <c r="D17">
-        <v>0.181006841149528</v>
+        <v>0.04022374247767289</v>
       </c>
       <c r="F17">
-        <v>0.2263031952967592</v>
+        <v>0.05028959895483539</v>
       </c>
       <c r="G17">
-        <v>0.5043165897325365</v>
+        <v>0.112070353273897</v>
       </c>
       <c r="I17">
-        <v>2.099808326755536</v>
+        <v>0.4666240726123413</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -887,28 +887,28 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>0.8499955934323126</v>
+        <v>0.188887909651625</v>
       </c>
       <c r="C18">
-        <v>0.2763742879677104</v>
+        <v>0.06141650843726898</v>
       </c>
       <c r="D18">
-        <v>0.362013682299056</v>
+        <v>0.08044748495534579</v>
       </c>
       <c r="E18">
-        <v>0.09177547174599818</v>
+        <v>0.02039454927688848</v>
       </c>
       <c r="F18">
-        <v>0.3017375937290123</v>
+        <v>0.06705279860644717</v>
       </c>
       <c r="G18">
-        <v>0.4034532717860291</v>
+        <v>0.08965628261911757</v>
       </c>
       <c r="H18">
-        <v>0.09867599465750425</v>
+        <v>0.02192799881277873</v>
       </c>
       <c r="I18">
-        <v>2.384025895617623</v>
+        <v>0.5297835323594717</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -916,22 +916,22 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>0.4699975634272788</v>
+        <v>0.1044439029838397</v>
       </c>
       <c r="C19">
-        <v>0.08291228639031312</v>
+        <v>0.0184249525311807</v>
       </c>
       <c r="D19">
-        <v>0.362013682299056</v>
+        <v>0.08044748495534579</v>
       </c>
       <c r="F19">
-        <v>0.3268823932064299</v>
+        <v>0.07264053182365111</v>
       </c>
       <c r="G19">
-        <v>0.7060432256255511</v>
+        <v>0.1568984945834558</v>
       </c>
       <c r="I19">
-        <v>1.947849150948629</v>
+        <v>0.4328553668774731</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -939,25 +939,25 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>0.4599976152692518</v>
+        <v>0.1022216922820559</v>
       </c>
       <c r="C20">
-        <v>0.08291228639031312</v>
+        <v>0.0184249525311807</v>
       </c>
       <c r="D20">
-        <v>0.2715102617242919</v>
+        <v>0.06033561371650933</v>
       </c>
       <c r="E20">
-        <v>0.3671018869839927</v>
+        <v>0.08157819710755392</v>
       </c>
       <c r="F20">
-        <v>0.2011583958193416</v>
+        <v>0.04470186573763146</v>
       </c>
       <c r="G20">
-        <v>0.2017266358930146</v>
+        <v>0.04482814130955878</v>
       </c>
       <c r="I20">
-        <v>1.584407082080206</v>
+        <v>0.3520904626844901</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -965,25 +965,25 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>1.199993778963265</v>
+        <v>0.2666652842140589</v>
       </c>
       <c r="C21">
-        <v>0.02763742879677104</v>
+        <v>0.006141650843726898</v>
       </c>
       <c r="D21">
-        <v>0.362013682299056</v>
+        <v>0.08044748495534579</v>
       </c>
       <c r="E21">
-        <v>0.1835509434919964</v>
+        <v>0.04078909855377696</v>
       </c>
       <c r="F21">
-        <v>0.3268823932064299</v>
+        <v>0.07264053182365111</v>
       </c>
       <c r="G21">
-        <v>0.2017266358930146</v>
+        <v>0.04482814130955878</v>
       </c>
       <c r="I21">
-        <v>2.301804862650533</v>
+        <v>0.5115121917001185</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -991,25 +991,25 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>3.459982062677413</v>
+        <v>0.7688849028172032</v>
       </c>
       <c r="C22">
-        <v>0.2210994303741683</v>
+        <v>0.04913320674981518</v>
       </c>
       <c r="D22">
-        <v>1.35755130862146</v>
+        <v>0.3016780685825466</v>
       </c>
       <c r="E22">
-        <v>0.8259792457139835</v>
+        <v>0.1835509434919964</v>
       </c>
       <c r="F22">
-        <v>1.056081578051543</v>
+        <v>0.2346847951225651</v>
       </c>
       <c r="G22">
-        <v>1.613813087144117</v>
+        <v>0.3586251304764703</v>
       </c>
       <c r="I22">
-        <v>8.534506712582685</v>
+        <v>1.896557047240597</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1017,28 +1017,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>5.479971590598911</v>
+        <v>1.217771464577536</v>
       </c>
       <c r="C23">
-        <v>0.3869240031547946</v>
+        <v>0.08598311181217656</v>
       </c>
       <c r="D23">
-        <v>1.448054729196224</v>
+        <v>0.3217899398213832</v>
       </c>
       <c r="E23">
-        <v>3.212141511109935</v>
+        <v>0.7138092246910966</v>
       </c>
       <c r="F23">
-        <v>1.885859960806327</v>
+        <v>0.4190799912902949</v>
       </c>
       <c r="G23">
-        <v>3.32848949223474</v>
+        <v>0.73966433160772</v>
       </c>
       <c r="H23">
-        <v>0.2466899866437607</v>
+        <v>0.05481999703194682</v>
       </c>
       <c r="I23">
-        <v>15.98813127374469</v>
+        <v>3.552918060832154</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1046,28 +1046,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>7.219962570095645</v>
+        <v>1.60443612668792</v>
       </c>
       <c r="C24">
-        <v>0.2487368591709393</v>
+        <v>0.05527485759354208</v>
       </c>
       <c r="D24">
-        <v>2.2625855143691</v>
+        <v>0.5027967809709112</v>
       </c>
       <c r="E24">
-        <v>3.48746792634793</v>
+        <v>0.7749928725217621</v>
       </c>
       <c r="F24">
-        <v>2.061873557148251</v>
+        <v>0.4581941238107223</v>
       </c>
       <c r="G24">
-        <v>2.017266358930146</v>
+        <v>0.448281413095588</v>
       </c>
       <c r="H24">
-        <v>0.09867599465750425</v>
+        <v>0.02192799881277873</v>
       </c>
       <c r="I24">
-        <v>17.39656878071952</v>
+        <v>3.865904173493224</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1075,28 +1075,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>7.299962155359864</v>
+        <v>1.622213812302192</v>
       </c>
       <c r="C25">
-        <v>0.2763742879677104</v>
+        <v>0.06141650843726898</v>
       </c>
       <c r="D25">
-        <v>1.81006841149528</v>
+        <v>0.4022374247767288</v>
       </c>
       <c r="E25">
-        <v>2.386162265395952</v>
+        <v>0.5302582811991005</v>
       </c>
       <c r="F25">
-        <v>1.558977567599897</v>
+        <v>0.3464394594666438</v>
       </c>
       <c r="G25">
-        <v>3.025899538395219</v>
+        <v>0.6724221196433818</v>
       </c>
       <c r="H25">
-        <v>0.2960279839725128</v>
+        <v>0.06578399643833618</v>
       </c>
       <c r="I25">
-        <v>16.65347221018643</v>
+        <v>3.700771602263652</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1104,28 +1104,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>6.439966613769521</v>
+        <v>1.431103691948782</v>
       </c>
       <c r="C26">
-        <v>0.5803860047321919</v>
+        <v>0.1289746677182648</v>
       </c>
       <c r="D26">
-        <v>3.258123140691503</v>
+        <v>0.724027364598112</v>
       </c>
       <c r="E26">
-        <v>2.569713208887948</v>
+        <v>0.5710473797528773</v>
       </c>
       <c r="F26">
-        <v>2.765927942515946</v>
+        <v>0.6146506538924323</v>
       </c>
       <c r="G26">
-        <v>4.034532717860292</v>
+        <v>0.896562826191176</v>
       </c>
       <c r="H26">
-        <v>0.09867599465750425</v>
+        <v>0.02192799881277873</v>
       </c>
       <c r="I26">
-        <v>19.74732562311491</v>
+        <v>4.388294582914424</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1133,28 +1133,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>5.559971175863128</v>
+        <v>1.235549150191805</v>
       </c>
       <c r="C27">
-        <v>0.5803860047321919</v>
+        <v>0.1289746677182648</v>
       </c>
       <c r="D27">
-        <v>2.353088934943864</v>
+        <v>0.5229086522097475</v>
       </c>
       <c r="E27">
-        <v>1.560183019681969</v>
+        <v>0.3467073377071043</v>
       </c>
       <c r="F27">
-        <v>3.243679132586882</v>
+        <v>0.7208175850193073</v>
       </c>
       <c r="G27">
-        <v>2.824172902502204</v>
+        <v>0.6275939783338232</v>
       </c>
       <c r="H27">
-        <v>0.04933799732875212</v>
+        <v>0.01096399940638936</v>
       </c>
       <c r="I27">
-        <v>16.17081916763899</v>
+        <v>3.593515370586442</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1162,28 +1162,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>6.309967287715169</v>
+        <v>1.402214952825593</v>
       </c>
       <c r="C28">
-        <v>0.8014854351063602</v>
+        <v>0.17810787446808</v>
       </c>
       <c r="D28">
-        <v>2.353088934943864</v>
+        <v>0.5229086522097475</v>
       </c>
       <c r="E28">
-        <v>2.110835850157958</v>
+        <v>0.469074633368435</v>
       </c>
       <c r="F28">
-        <v>2.514479947741769</v>
+        <v>0.5587733217203932</v>
       </c>
       <c r="G28">
-        <v>4.034532717860292</v>
+        <v>0.896562826191176</v>
       </c>
       <c r="H28">
-        <v>0.09867599465750425</v>
+        <v>0.02192799881277873</v>
       </c>
       <c r="I28">
-        <v>18.22306616818292</v>
+        <v>4.049570259596204</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1191,28 +1191,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>5.749970190865643</v>
+        <v>1.277771153525699</v>
       </c>
       <c r="C29">
-        <v>0.690935719919276</v>
+        <v>0.1535412710931724</v>
       </c>
       <c r="D29">
-        <v>2.534095776093392</v>
+        <v>0.5631323946874207</v>
       </c>
       <c r="E29">
-        <v>1.560183019681969</v>
+        <v>0.3467073377071043</v>
       </c>
       <c r="F29">
-        <v>2.061873557148251</v>
+        <v>0.4581941238107223</v>
       </c>
       <c r="G29">
-        <v>1.714676405090624</v>
+        <v>0.3810392011312497</v>
       </c>
       <c r="H29">
-        <v>0.1480139919862564</v>
+        <v>0.03289199821916809</v>
       </c>
       <c r="I29">
-        <v>14.45974866078541</v>
+        <v>3.213277480174537</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1220,28 +1220,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>5.809969879813808</v>
+        <v>1.291104417736402</v>
       </c>
       <c r="C30">
-        <v>0.4145614319515656</v>
+        <v>0.09212476265590346</v>
       </c>
       <c r="D30">
-        <v>2.2625855143691</v>
+        <v>0.5027967809709112</v>
       </c>
       <c r="E30">
-        <v>1.376632076189973</v>
+        <v>0.3059182391533272</v>
       </c>
       <c r="F30">
-        <v>2.514479947741769</v>
+        <v>0.5587733217203932</v>
       </c>
       <c r="G30">
-        <v>3.32848949223474</v>
+        <v>0.73966433160772</v>
       </c>
       <c r="H30">
-        <v>0.1973519893150085</v>
+        <v>0.04385599762555745</v>
       </c>
       <c r="I30">
-        <v>15.90407033161596</v>
+        <v>3.534237851470215</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1249,28 +1249,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>5.829969776129863</v>
+        <v>1.29554883913997</v>
       </c>
       <c r="C31">
-        <v>0.5527485759354208</v>
+        <v>0.122833016874538</v>
       </c>
       <c r="D31">
-        <v>2.896109458392448</v>
+        <v>0.6435798796427663</v>
       </c>
       <c r="E31">
-        <v>1.468407547935971</v>
+        <v>0.3263127884302157</v>
       </c>
       <c r="F31">
-        <v>2.94194153885787</v>
+        <v>0.65376478641286</v>
       </c>
       <c r="G31">
-        <v>2.118129676876653</v>
+        <v>0.4706954837503672</v>
       </c>
       <c r="H31">
-        <v>0.09867599465750425</v>
+        <v>0.02192799881277873</v>
       </c>
       <c r="I31">
-        <v>15.90598256878573</v>
+        <v>3.534662793063495</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1278,28 +1278,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>6.0999683763966</v>
+        <v>1.355548528088133</v>
       </c>
       <c r="C32">
-        <v>0.6356608623257338</v>
+        <v>0.1412579694057187</v>
       </c>
       <c r="D32">
-        <v>2.2625855143691</v>
+        <v>0.5027967809709112</v>
       </c>
       <c r="E32">
-        <v>1.927284906665961</v>
+        <v>0.428285534814658</v>
       </c>
       <c r="F32">
-        <v>2.94194153885787</v>
+        <v>0.65376478641286</v>
       </c>
       <c r="G32">
-        <v>2.319856312769667</v>
+        <v>0.5155236250599262</v>
       </c>
       <c r="H32">
-        <v>0.1480139919862564</v>
+        <v>0.03289199821916809</v>
       </c>
       <c r="I32">
-        <v>16.33531150337119</v>
+        <v>3.630069222971375</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1307,28 +1307,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>6.94996396982891</v>
+        <v>1.544436437739758</v>
       </c>
       <c r="C33">
-        <v>0.4421988607483366</v>
+        <v>0.09826641349963036</v>
       </c>
       <c r="D33">
-        <v>3.62013682299056</v>
+        <v>0.8044748495534576</v>
       </c>
       <c r="E33">
-        <v>2.202611321903956</v>
+        <v>0.4894691826453235</v>
       </c>
       <c r="F33">
-        <v>2.740783143038528</v>
+        <v>0.6090629206752285</v>
       </c>
       <c r="G33">
-        <v>2.21899299482316</v>
+        <v>0.4931095544051468</v>
       </c>
       <c r="H33">
-        <v>0.1480139919862564</v>
+        <v>0.03289199821916809</v>
       </c>
       <c r="I33">
-        <v>18.32270110531971</v>
+        <v>4.071711356737713</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1336,28 +1336,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>8.459956141691018</v>
+        <v>1.879990253709115</v>
       </c>
       <c r="C34">
-        <v>0.6632982911225049</v>
+        <v>0.1473996202494456</v>
       </c>
       <c r="D34">
-        <v>2.2625855143691</v>
+        <v>0.5027967809709112</v>
       </c>
       <c r="E34">
-        <v>2.019060378411959</v>
+        <v>0.4486800840915466</v>
       </c>
       <c r="F34">
-        <v>2.388755950354681</v>
+        <v>0.5308346556343735</v>
       </c>
       <c r="G34">
-        <v>1.613813087144117</v>
+        <v>0.3586251304764703</v>
       </c>
       <c r="H34">
-        <v>0.04933799732875212</v>
+        <v>0.01096399940638936</v>
       </c>
       <c r="I34">
-        <v>17.45680736042213</v>
+        <v>3.879290524538252</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1365,28 +1365,28 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>8.259957178530476</v>
+        <v>1.835546039673439</v>
       </c>
       <c r="C35">
-        <v>0.1934620015773973</v>
+        <v>0.04299155590608828</v>
       </c>
       <c r="D35">
-        <v>2.443592355518628</v>
+        <v>0.5430205234485838</v>
       </c>
       <c r="E35">
-        <v>2.386162265395952</v>
+        <v>0.5302582811991005</v>
       </c>
       <c r="F35">
-        <v>1.257239973870885</v>
+        <v>0.2793866608601966</v>
       </c>
       <c r="G35">
-        <v>1.008633179465073</v>
+        <v>0.224140706547794</v>
       </c>
       <c r="H35">
-        <v>0.09867599465750425</v>
+        <v>0.02192799881277873</v>
       </c>
       <c r="I35">
-        <v>15.64772294901592</v>
+        <v>3.47727176644798</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1394,28 +1394,28 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>7.279962259043809</v>
+        <v>1.617769390898625</v>
       </c>
       <c r="C36">
-        <v>0.3316491455612525</v>
+        <v>0.07369981012472279</v>
       </c>
       <c r="D36">
-        <v>1.719564990920516</v>
+        <v>0.3821255535378925</v>
       </c>
       <c r="E36">
-        <v>3.212141511109935</v>
+        <v>0.7138092246910966</v>
       </c>
       <c r="F36">
-        <v>0.9052127811870367</v>
+        <v>0.2011583958193416</v>
       </c>
       <c r="G36">
-        <v>1.714676405090624</v>
+        <v>0.3810392011312497</v>
       </c>
       <c r="H36">
-        <v>0.09867599465750425</v>
+        <v>0.02192799881277873</v>
       </c>
       <c r="I36">
-        <v>15.26188308757068</v>
+        <v>3.391529575015707</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1423,28 +1423,28 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>5.719970346391564</v>
+        <v>1.271104521420347</v>
       </c>
       <c r="C37">
-        <v>0.1658245727806262</v>
+        <v>0.0368499050623614</v>
       </c>
       <c r="D37">
-        <v>1.35755130862146</v>
+        <v>0.3016780685825466</v>
       </c>
       <c r="E37">
-        <v>2.569713208887948</v>
+        <v>0.5710473797528773</v>
       </c>
       <c r="F37">
-        <v>0.8046335832773662</v>
+        <v>0.1788074629505258</v>
       </c>
       <c r="G37">
-        <v>0.9077698615185654</v>
+        <v>0.2017266358930146</v>
       </c>
       <c r="H37">
-        <v>0.04933799732875212</v>
+        <v>0.01096399940638936</v>
       </c>
       <c r="I37">
-        <v>11.57480087880628</v>
+        <v>2.572177973068063</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1452,25 +1452,25 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>4.489976722954217</v>
+        <v>0.9977726051009373</v>
       </c>
       <c r="C38">
-        <v>0.2487368591709393</v>
+        <v>0.05527485759354208</v>
       </c>
       <c r="D38">
-        <v>1.267047888046696</v>
+        <v>0.2815661973437104</v>
       </c>
       <c r="E38">
-        <v>2.936815095871942</v>
+        <v>0.6526255768604313</v>
       </c>
       <c r="F38">
-        <v>0.5280407890257716</v>
+        <v>0.1173423975612825</v>
       </c>
       <c r="G38">
-        <v>0.6051799076790437</v>
+        <v>0.1344844239286763</v>
       </c>
       <c r="I38">
-        <v>10.07579726274861</v>
+        <v>2.23906605838858</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1478,28 +1478,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>2.949984706618028</v>
+        <v>0.655552157026228</v>
       </c>
       <c r="C39">
-        <v>0.1105497151870842</v>
+        <v>0.02456660337490759</v>
       </c>
       <c r="D39">
-        <v>0.5430205234485838</v>
+        <v>0.1206712274330187</v>
       </c>
       <c r="E39">
-        <v>1.651958491427967</v>
+        <v>0.3671018869839927</v>
       </c>
       <c r="F39">
-        <v>0.3771719921612653</v>
+        <v>0.08381599825805897</v>
       </c>
       <c r="G39">
-        <v>0.7060432256255511</v>
+        <v>0.1568984945834558</v>
       </c>
       <c r="H39">
-        <v>0.04933799732875212</v>
+        <v>0.01096399940638936</v>
       </c>
       <c r="I39">
-        <v>6.388066651797232</v>
+        <v>1.419570367066051</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1507,25 +1507,25 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>1.529992068178162</v>
+        <v>0.339998237372925</v>
       </c>
       <c r="C40">
-        <v>0.3040117167644815</v>
+        <v>0.06755815928099589</v>
       </c>
       <c r="D40">
-        <v>0.724027364598112</v>
+        <v>0.1608949699106916</v>
       </c>
       <c r="E40">
-        <v>0.7342037739679854</v>
+        <v>0.1631563942151078</v>
       </c>
       <c r="F40">
-        <v>0.4526063905935184</v>
+        <v>0.1005791979096708</v>
       </c>
       <c r="G40">
-        <v>0.5043165897325365</v>
+        <v>0.112070353273897</v>
       </c>
       <c r="I40">
-        <v>4.249157903834796</v>
+        <v>0.9442573119632881</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1533,22 +1533,22 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>1.049994556592857</v>
+        <v>0.2333321236873015</v>
       </c>
       <c r="C41">
-        <v>0.1381871439838552</v>
+        <v>0.03070825421863449</v>
       </c>
       <c r="D41">
-        <v>0.181006841149528</v>
+        <v>0.04022374247767289</v>
       </c>
       <c r="F41">
-        <v>0.2263031952967592</v>
+        <v>0.05028959895483539</v>
       </c>
       <c r="G41">
-        <v>0.5043165897325365</v>
+        <v>0.112070353273897</v>
       </c>
       <c r="I41">
-        <v>2.099808326755536</v>
+        <v>0.4666240726123413</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1556,28 +1556,28 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>0.8499955934323126</v>
+        <v>0.188887909651625</v>
       </c>
       <c r="C42">
-        <v>0.2763742879677104</v>
+        <v>0.06141650843726898</v>
       </c>
       <c r="D42">
-        <v>0.362013682299056</v>
+        <v>0.08044748495534579</v>
       </c>
       <c r="E42">
-        <v>0.09177547174599818</v>
+        <v>0.02039454927688848</v>
       </c>
       <c r="F42">
-        <v>0.3017375937290123</v>
+        <v>0.06705279860644717</v>
       </c>
       <c r="G42">
-        <v>0.4034532717860291</v>
+        <v>0.08965628261911757</v>
       </c>
       <c r="H42">
-        <v>0.09867599465750425</v>
+        <v>0.02192799881277873</v>
       </c>
       <c r="I42">
-        <v>2.384025895617623</v>
+        <v>0.5297835323594717</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1585,22 +1585,22 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>0.4699975634272788</v>
+        <v>0.1044439029838397</v>
       </c>
       <c r="C43">
-        <v>0.08291228639031312</v>
+        <v>0.0184249525311807</v>
       </c>
       <c r="D43">
-        <v>0.362013682299056</v>
+        <v>0.08044748495534579</v>
       </c>
       <c r="F43">
-        <v>0.3268823932064299</v>
+        <v>0.07264053182365111</v>
       </c>
       <c r="G43">
-        <v>0.7060432256255511</v>
+        <v>0.1568984945834558</v>
       </c>
       <c r="I43">
-        <v>1.947849150948629</v>
+        <v>0.4328553668774731</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1608,25 +1608,25 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>0.4599976152692518</v>
+        <v>0.1022216922820559</v>
       </c>
       <c r="C44">
-        <v>0.08291228639031312</v>
+        <v>0.0184249525311807</v>
       </c>
       <c r="D44">
-        <v>0.2715102617242919</v>
+        <v>0.06033561371650933</v>
       </c>
       <c r="E44">
-        <v>0.3671018869839927</v>
+        <v>0.08157819710755392</v>
       </c>
       <c r="F44">
-        <v>0.2011583958193416</v>
+        <v>0.04470186573763146</v>
       </c>
       <c r="G44">
-        <v>0.2017266358930146</v>
+        <v>0.04482814130955878</v>
       </c>
       <c r="I44">
-        <v>1.584407082080206</v>
+        <v>0.3520904626844901</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1634,25 +1634,25 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>1.199993778963265</v>
+        <v>0.2666652842140589</v>
       </c>
       <c r="C45">
-        <v>0.02763742879677104</v>
+        <v>0.006141650843726898</v>
       </c>
       <c r="D45">
-        <v>0.362013682299056</v>
+        <v>0.08044748495534579</v>
       </c>
       <c r="E45">
-        <v>0.1835509434919964</v>
+        <v>0.04078909855377696</v>
       </c>
       <c r="F45">
-        <v>0.3268823932064299</v>
+        <v>0.07264053182365111</v>
       </c>
       <c r="G45">
-        <v>0.2017266358930146</v>
+        <v>0.04482814130955878</v>
       </c>
       <c r="I45">
-        <v>2.301804862650533</v>
+        <v>0.5115121917001185</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1660,25 +1660,25 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>3.459982062677413</v>
+        <v>0.7688849028172032</v>
       </c>
       <c r="C46">
-        <v>0.2210994303741683</v>
+        <v>0.04913320674981518</v>
       </c>
       <c r="D46">
-        <v>1.35755130862146</v>
+        <v>0.3016780685825466</v>
       </c>
       <c r="E46">
-        <v>0.8259792457139835</v>
+        <v>0.1835509434919964</v>
       </c>
       <c r="F46">
-        <v>1.056081578051543</v>
+        <v>0.2346847951225651</v>
       </c>
       <c r="G46">
-        <v>1.613813087144117</v>
+        <v>0.3586251304764703</v>
       </c>
       <c r="I46">
-        <v>8.534506712582685</v>
+        <v>1.896557047240597</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1686,28 +1686,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>5.479971590598911</v>
+        <v>1.217771464577536</v>
       </c>
       <c r="C47">
-        <v>0.3869240031547946</v>
+        <v>0.08598311181217656</v>
       </c>
       <c r="D47">
-        <v>1.448054729196224</v>
+        <v>0.3217899398213832</v>
       </c>
       <c r="E47">
-        <v>3.212141511109935</v>
+        <v>0.7138092246910966</v>
       </c>
       <c r="F47">
-        <v>1.885859960806327</v>
+        <v>0.4190799912902949</v>
       </c>
       <c r="G47">
-        <v>3.32848949223474</v>
+        <v>0.73966433160772</v>
       </c>
       <c r="H47">
-        <v>0.2466899866437607</v>
+        <v>0.05481999703194682</v>
       </c>
       <c r="I47">
-        <v>15.98813127374469</v>
+        <v>3.552918060832154</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1715,28 +1715,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>7.219962570095645</v>
+        <v>1.60443612668792</v>
       </c>
       <c r="C48">
-        <v>0.2487368591709393</v>
+        <v>0.05527485759354208</v>
       </c>
       <c r="D48">
-        <v>2.2625855143691</v>
+        <v>0.5027967809709112</v>
       </c>
       <c r="E48">
-        <v>3.48746792634793</v>
+        <v>0.7749928725217621</v>
       </c>
       <c r="F48">
-        <v>2.061873557148251</v>
+        <v>0.4581941238107223</v>
       </c>
       <c r="G48">
-        <v>2.017266358930146</v>
+        <v>0.448281413095588</v>
       </c>
       <c r="H48">
-        <v>0.09867599465750425</v>
+        <v>0.02192799881277873</v>
       </c>
       <c r="I48">
-        <v>17.39656878071952</v>
+        <v>3.865904173493224</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1744,28 +1744,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>7.299962155359864</v>
+        <v>1.622213812302192</v>
       </c>
       <c r="C49">
-        <v>0.2763742879677104</v>
+        <v>0.06141650843726898</v>
       </c>
       <c r="D49">
-        <v>1.81006841149528</v>
+        <v>0.4022374247767288</v>
       </c>
       <c r="E49">
-        <v>2.386162265395952</v>
+        <v>0.5302582811991005</v>
       </c>
       <c r="F49">
-        <v>1.558977567599897</v>
+        <v>0.3464394594666438</v>
       </c>
       <c r="G49">
-        <v>3.025899538395219</v>
+        <v>0.6724221196433818</v>
       </c>
       <c r="H49">
-        <v>0.2960279839725128</v>
+        <v>0.06578399643833618</v>
       </c>
       <c r="I49">
-        <v>16.65347221018643</v>
+        <v>3.700771602263652</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_W_여름_배출량/경기동로_W_여름_배출량_PM25_재비산.xlsx
+++ b/output/경기동로_W_여름_배출량/경기동로_W_여름_배출량_PM25_재비산.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>1.431103691948782</v>
+        <v>6.439966613769521</v>
       </c>
       <c r="C2">
-        <v>0.1289746677182648</v>
+        <v>0.5803860047321919</v>
       </c>
       <c r="D2">
-        <v>0.724027364598112</v>
+        <v>3.258123140691503</v>
       </c>
       <c r="E2">
-        <v>0.5710473797528773</v>
+        <v>2.569713208887948</v>
       </c>
       <c r="F2">
-        <v>0.6146506538924323</v>
+        <v>2.765927942515946</v>
       </c>
       <c r="G2">
-        <v>0.896562826191176</v>
+        <v>4.034532717860292</v>
       </c>
       <c r="H2">
-        <v>0.02192799881277873</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="I2">
-        <v>4.388294582914424</v>
+        <v>19.74732562311491</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,25 +467,25 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>1.644435919320031</v>
+        <v>7.399961636940136</v>
       </c>
       <c r="C3">
-        <v>0.1535412710931724</v>
+        <v>0.690935719919276</v>
       </c>
       <c r="D3">
-        <v>0.4826849097320746</v>
+        <v>2.172082093794335</v>
       </c>
       <c r="E3">
-        <v>0.3263127884302157</v>
+        <v>1.468407547935971</v>
       </c>
       <c r="F3">
-        <v>0.7711071839741424</v>
+        <v>3.469982327883641</v>
       </c>
       <c r="G3">
-        <v>1.389672380596322</v>
+        <v>6.253525712683452</v>
       </c>
       <c r="I3">
-        <v>4.767754453145958</v>
+        <v>21.45489503915681</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -493,28 +493,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>1.339993053175646</v>
+        <v>6.02996873929041</v>
       </c>
       <c r="C4">
-        <v>0.1105497151870842</v>
+        <v>0.4974737183418786</v>
       </c>
       <c r="D4">
-        <v>0.3821255535378925</v>
+        <v>1.719564990920516</v>
       </c>
       <c r="E4">
-        <v>0.5506528304759889</v>
+        <v>2.47793773714195</v>
       </c>
       <c r="F4">
-        <v>0.6034751874580245</v>
+        <v>2.715638343561111</v>
       </c>
       <c r="G4">
-        <v>0.918976896845955</v>
+        <v>4.135396035806799</v>
       </c>
       <c r="H4">
-        <v>0.02192799881277873</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="I4">
-        <v>3.92770123549337</v>
+        <v>17.67465555972017</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -522,28 +522,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>1.533325384230839</v>
+        <v>6.899964229038773</v>
       </c>
       <c r="C5">
-        <v>0.1473996202494456</v>
+        <v>0.6632982911225049</v>
       </c>
       <c r="D5">
-        <v>0.5832442659262569</v>
+        <v>2.624599196668157</v>
       </c>
       <c r="E5">
-        <v>0.3671018869839927</v>
+        <v>1.651958491427967</v>
       </c>
       <c r="F5">
-        <v>0.5867119878064129</v>
+        <v>2.640203945128857</v>
       </c>
       <c r="G5">
-        <v>0.6500080489886025</v>
+        <v>2.925036220448711</v>
       </c>
       <c r="H5">
-        <v>0.04385599762555745</v>
+        <v>0.1973519893150085</v>
       </c>
       <c r="I5">
-        <v>3.911647191811108</v>
+        <v>17.60241236314998</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -551,28 +551,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>1.457770220370189</v>
+        <v>6.55996599166585</v>
       </c>
       <c r="C6">
-        <v>0.2026744778429876</v>
+        <v>0.9120351502934443</v>
       </c>
       <c r="D6">
-        <v>0.4826849097320746</v>
+        <v>2.172082093794335</v>
       </c>
       <c r="E6">
-        <v>0.3467073377071043</v>
+        <v>1.560183019681969</v>
       </c>
       <c r="F6">
-        <v>0.5811242545892089</v>
+        <v>2.615059145651439</v>
       </c>
       <c r="G6">
-        <v>0.8741487555363965</v>
+        <v>3.933669399913784</v>
       </c>
       <c r="H6">
-        <v>0.01096399940638936</v>
+        <v>0.04933799732875212</v>
       </c>
       <c r="I6">
-        <v>3.95607395518435</v>
+        <v>17.80233279832957</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -580,28 +580,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>1.428881481246999</v>
+        <v>6.429966665611493</v>
       </c>
       <c r="C7">
-        <v>0.116691366030811</v>
+        <v>0.5251111471386498</v>
       </c>
       <c r="D7">
-        <v>0.3821255535378925</v>
+        <v>1.719564990920516</v>
       </c>
       <c r="E7">
-        <v>0.469074633368435</v>
+        <v>2.110835850157958</v>
       </c>
       <c r="F7">
-        <v>0.65376478641286</v>
+        <v>2.94194153885787</v>
       </c>
       <c r="G7">
-        <v>0.8069065435720583</v>
+        <v>3.631079446074262</v>
       </c>
       <c r="H7">
-        <v>0.09867599465750425</v>
+        <v>0.4440419759587692</v>
       </c>
       <c r="I7">
-        <v>3.95612035882656</v>
+        <v>17.80254161471952</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -609,28 +609,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>1.37777063510597</v>
+        <v>6.19996785797687</v>
       </c>
       <c r="C8">
-        <v>0.17810787446808</v>
+        <v>0.8014854351063602</v>
       </c>
       <c r="D8">
-        <v>0.4022374247767288</v>
+        <v>1.81006841149528</v>
       </c>
       <c r="E8">
-        <v>0.4078909855377696</v>
+        <v>1.835509434919963</v>
       </c>
       <c r="F8">
-        <v>0.6202383871096365</v>
+        <v>2.791072741993363</v>
       </c>
       <c r="G8">
-        <v>0.6724221196433818</v>
+        <v>3.025899538395219</v>
       </c>
       <c r="H8">
-        <v>0.03289199821916809</v>
+        <v>0.1480139919862564</v>
       </c>
       <c r="I8">
-        <v>3.691559424860735</v>
+        <v>16.61201741187331</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -638,28 +638,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>1.544436437739758</v>
+        <v>6.94996396982891</v>
       </c>
       <c r="C9">
-        <v>0.09826641349963036</v>
+        <v>0.4421988607483366</v>
       </c>
       <c r="D9">
-        <v>0.8044748495534576</v>
+        <v>3.62013682299056</v>
       </c>
       <c r="E9">
-        <v>0.4894691826453235</v>
+        <v>2.202611321903956</v>
       </c>
       <c r="F9">
-        <v>0.6090629206752285</v>
+        <v>2.740783143038528</v>
       </c>
       <c r="G9">
-        <v>0.4931095544051468</v>
+        <v>2.21899299482316</v>
       </c>
       <c r="H9">
-        <v>0.03289199821916809</v>
+        <v>0.1480139919862564</v>
       </c>
       <c r="I9">
-        <v>4.071711356737713</v>
+        <v>18.32270110531971</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -667,28 +667,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>1.879990253709115</v>
+        <v>8.459956141691018</v>
       </c>
       <c r="C10">
-        <v>0.1473996202494456</v>
+        <v>0.6632982911225049</v>
       </c>
       <c r="D10">
-        <v>0.5027967809709112</v>
+        <v>2.2625855143691</v>
       </c>
       <c r="E10">
-        <v>0.4486800840915466</v>
+        <v>2.019060378411959</v>
       </c>
       <c r="F10">
-        <v>0.5308346556343735</v>
+        <v>2.388755950354681</v>
       </c>
       <c r="G10">
-        <v>0.3586251304764703</v>
+        <v>1.613813087144117</v>
       </c>
       <c r="H10">
-        <v>0.01096399940638936</v>
+        <v>0.04933799732875212</v>
       </c>
       <c r="I10">
-        <v>3.879290524538252</v>
+        <v>17.45680736042213</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -696,28 +696,28 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>1.835546039673439</v>
+        <v>8.259957178530476</v>
       </c>
       <c r="C11">
-        <v>0.04299155590608828</v>
+        <v>0.1934620015773973</v>
       </c>
       <c r="D11">
-        <v>0.5430205234485838</v>
+        <v>2.443592355518628</v>
       </c>
       <c r="E11">
-        <v>0.5302582811991005</v>
+        <v>2.386162265395952</v>
       </c>
       <c r="F11">
-        <v>0.2793866608601966</v>
+        <v>1.257239973870885</v>
       </c>
       <c r="G11">
-        <v>0.224140706547794</v>
+        <v>1.008633179465073</v>
       </c>
       <c r="H11">
-        <v>0.02192799881277873</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="I11">
-        <v>3.47727176644798</v>
+        <v>15.64772294901592</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -725,28 +725,28 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>1.617769390898625</v>
+        <v>7.279962259043809</v>
       </c>
       <c r="C12">
-        <v>0.07369981012472279</v>
+        <v>0.3316491455612525</v>
       </c>
       <c r="D12">
-        <v>0.3821255535378925</v>
+        <v>1.719564990920516</v>
       </c>
       <c r="E12">
-        <v>0.7138092246910966</v>
+        <v>3.212141511109935</v>
       </c>
       <c r="F12">
-        <v>0.2011583958193416</v>
+        <v>0.9052127811870367</v>
       </c>
       <c r="G12">
-        <v>0.3810392011312497</v>
+        <v>1.714676405090624</v>
       </c>
       <c r="H12">
-        <v>0.02192799881277873</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="I12">
-        <v>3.391529575015707</v>
+        <v>15.26188308757068</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,28 +754,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>1.271104521420347</v>
+        <v>5.719970346391564</v>
       </c>
       <c r="C13">
-        <v>0.0368499050623614</v>
+        <v>0.1658245727806262</v>
       </c>
       <c r="D13">
-        <v>0.3016780685825466</v>
+        <v>1.35755130862146</v>
       </c>
       <c r="E13">
-        <v>0.5710473797528773</v>
+        <v>2.569713208887948</v>
       </c>
       <c r="F13">
-        <v>0.1788074629505258</v>
+        <v>0.8046335832773662</v>
       </c>
       <c r="G13">
-        <v>0.2017266358930146</v>
+        <v>0.9077698615185654</v>
       </c>
       <c r="H13">
-        <v>0.01096399940638936</v>
+        <v>0.04933799732875212</v>
       </c>
       <c r="I13">
-        <v>2.572177973068063</v>
+        <v>11.57480087880628</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,25 +783,25 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>0.9977726051009373</v>
+        <v>4.489976722954217</v>
       </c>
       <c r="C14">
-        <v>0.05527485759354208</v>
+        <v>0.2487368591709393</v>
       </c>
       <c r="D14">
-        <v>0.2815661973437104</v>
+        <v>1.267047888046696</v>
       </c>
       <c r="E14">
-        <v>0.6526255768604313</v>
+        <v>2.936815095871942</v>
       </c>
       <c r="F14">
-        <v>0.1173423975612825</v>
+        <v>0.5280407890257716</v>
       </c>
       <c r="G14">
-        <v>0.1344844239286763</v>
+        <v>0.6051799076790437</v>
       </c>
       <c r="I14">
-        <v>2.23906605838858</v>
+        <v>10.07579726274861</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -809,28 +809,28 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>0.655552157026228</v>
+        <v>2.949984706618028</v>
       </c>
       <c r="C15">
-        <v>0.02456660337490759</v>
+        <v>0.1105497151870842</v>
       </c>
       <c r="D15">
-        <v>0.1206712274330187</v>
+        <v>0.5430205234485838</v>
       </c>
       <c r="E15">
-        <v>0.3671018869839927</v>
+        <v>1.651958491427967</v>
       </c>
       <c r="F15">
-        <v>0.08381599825805897</v>
+        <v>0.3771719921612653</v>
       </c>
       <c r="G15">
-        <v>0.1568984945834558</v>
+        <v>0.7060432256255511</v>
       </c>
       <c r="H15">
-        <v>0.01096399940638936</v>
+        <v>0.04933799732875212</v>
       </c>
       <c r="I15">
-        <v>1.419570367066051</v>
+        <v>6.388066651797232</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -838,25 +838,25 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>0.339998237372925</v>
+        <v>1.529992068178162</v>
       </c>
       <c r="C16">
-        <v>0.06755815928099589</v>
+        <v>0.3040117167644815</v>
       </c>
       <c r="D16">
-        <v>0.1608949699106916</v>
+        <v>0.724027364598112</v>
       </c>
       <c r="E16">
-        <v>0.1631563942151078</v>
+        <v>0.7342037739679854</v>
       </c>
       <c r="F16">
-        <v>0.1005791979096708</v>
+        <v>0.4526063905935184</v>
       </c>
       <c r="G16">
-        <v>0.112070353273897</v>
+        <v>0.5043165897325365</v>
       </c>
       <c r="I16">
-        <v>0.9442573119632881</v>
+        <v>4.249157903834796</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -864,22 +864,22 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>0.2333321236873015</v>
+        <v>1.049994556592857</v>
       </c>
       <c r="C17">
-        <v>0.03070825421863449</v>
+        <v>0.1381871439838552</v>
       </c>
       <c r="D17">
-        <v>0.04022374247767289</v>
+        <v>0.181006841149528</v>
       </c>
       <c r="F17">
-        <v>0.05028959895483539</v>
+        <v>0.2263031952967592</v>
       </c>
       <c r="G17">
-        <v>0.112070353273897</v>
+        <v>0.5043165897325365</v>
       </c>
       <c r="I17">
-        <v>0.4666240726123413</v>
+        <v>2.099808326755536</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -887,28 +887,28 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>0.188887909651625</v>
+        <v>0.8499955934323126</v>
       </c>
       <c r="C18">
-        <v>0.06141650843726898</v>
+        <v>0.2763742879677104</v>
       </c>
       <c r="D18">
-        <v>0.08044748495534579</v>
+        <v>0.362013682299056</v>
       </c>
       <c r="E18">
-        <v>0.02039454927688848</v>
+        <v>0.09177547174599818</v>
       </c>
       <c r="F18">
-        <v>0.06705279860644717</v>
+        <v>0.3017375937290123</v>
       </c>
       <c r="G18">
-        <v>0.08965628261911757</v>
+        <v>0.4034532717860291</v>
       </c>
       <c r="H18">
-        <v>0.02192799881277873</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="I18">
-        <v>0.5297835323594717</v>
+        <v>2.384025895617623</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -916,22 +916,22 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>0.1044439029838397</v>
+        <v>0.4699975634272788</v>
       </c>
       <c r="C19">
-        <v>0.0184249525311807</v>
+        <v>0.08291228639031312</v>
       </c>
       <c r="D19">
-        <v>0.08044748495534579</v>
+        <v>0.362013682299056</v>
       </c>
       <c r="F19">
-        <v>0.07264053182365111</v>
+        <v>0.3268823932064299</v>
       </c>
       <c r="G19">
-        <v>0.1568984945834558</v>
+        <v>0.7060432256255511</v>
       </c>
       <c r="I19">
-        <v>0.4328553668774731</v>
+        <v>1.947849150948629</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -939,25 +939,25 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>0.1022216922820559</v>
+        <v>0.4599976152692518</v>
       </c>
       <c r="C20">
-        <v>0.0184249525311807</v>
+        <v>0.08291228639031312</v>
       </c>
       <c r="D20">
-        <v>0.06033561371650933</v>
+        <v>0.2715102617242919</v>
       </c>
       <c r="E20">
-        <v>0.08157819710755392</v>
+        <v>0.3671018869839927</v>
       </c>
       <c r="F20">
-        <v>0.04470186573763146</v>
+        <v>0.2011583958193416</v>
       </c>
       <c r="G20">
-        <v>0.04482814130955878</v>
+        <v>0.2017266358930146</v>
       </c>
       <c r="I20">
-        <v>0.3520904626844901</v>
+        <v>1.584407082080206</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -965,25 +965,25 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>0.2666652842140589</v>
+        <v>1.199993778963265</v>
       </c>
       <c r="C21">
-        <v>0.006141650843726898</v>
+        <v>0.02763742879677104</v>
       </c>
       <c r="D21">
-        <v>0.08044748495534579</v>
+        <v>0.362013682299056</v>
       </c>
       <c r="E21">
-        <v>0.04078909855377696</v>
+        <v>0.1835509434919964</v>
       </c>
       <c r="F21">
-        <v>0.07264053182365111</v>
+        <v>0.3268823932064299</v>
       </c>
       <c r="G21">
-        <v>0.04482814130955878</v>
+        <v>0.2017266358930146</v>
       </c>
       <c r="I21">
-        <v>0.5115121917001185</v>
+        <v>2.301804862650533</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -991,25 +991,25 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>0.7688849028172032</v>
+        <v>3.459982062677413</v>
       </c>
       <c r="C22">
-        <v>0.04913320674981518</v>
+        <v>0.2210994303741683</v>
       </c>
       <c r="D22">
-        <v>0.3016780685825466</v>
+        <v>1.35755130862146</v>
       </c>
       <c r="E22">
-        <v>0.1835509434919964</v>
+        <v>0.8259792457139835</v>
       </c>
       <c r="F22">
-        <v>0.2346847951225651</v>
+        <v>1.056081578051543</v>
       </c>
       <c r="G22">
-        <v>0.3586251304764703</v>
+        <v>1.613813087144117</v>
       </c>
       <c r="I22">
-        <v>1.896557047240597</v>
+        <v>8.534506712582685</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1017,28 +1017,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>1.217771464577536</v>
+        <v>5.479971590598911</v>
       </c>
       <c r="C23">
-        <v>0.08598311181217656</v>
+        <v>0.3869240031547946</v>
       </c>
       <c r="D23">
-        <v>0.3217899398213832</v>
+        <v>1.448054729196224</v>
       </c>
       <c r="E23">
-        <v>0.7138092246910966</v>
+        <v>3.212141511109935</v>
       </c>
       <c r="F23">
-        <v>0.4190799912902949</v>
+        <v>1.885859960806327</v>
       </c>
       <c r="G23">
-        <v>0.73966433160772</v>
+        <v>3.32848949223474</v>
       </c>
       <c r="H23">
-        <v>0.05481999703194682</v>
+        <v>0.2466899866437607</v>
       </c>
       <c r="I23">
-        <v>3.552918060832154</v>
+        <v>15.98813127374469</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1046,28 +1046,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>1.60443612668792</v>
+        <v>7.219962570095645</v>
       </c>
       <c r="C24">
-        <v>0.05527485759354208</v>
+        <v>0.2487368591709393</v>
       </c>
       <c r="D24">
-        <v>0.5027967809709112</v>
+        <v>2.2625855143691</v>
       </c>
       <c r="E24">
-        <v>0.7749928725217621</v>
+        <v>3.48746792634793</v>
       </c>
       <c r="F24">
-        <v>0.4581941238107223</v>
+        <v>2.061873557148251</v>
       </c>
       <c r="G24">
-        <v>0.448281413095588</v>
+        <v>2.017266358930146</v>
       </c>
       <c r="H24">
-        <v>0.02192799881277873</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="I24">
-        <v>3.865904173493224</v>
+        <v>17.39656878071952</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1075,28 +1075,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>1.622213812302192</v>
+        <v>7.299962155359864</v>
       </c>
       <c r="C25">
-        <v>0.06141650843726898</v>
+        <v>0.2763742879677104</v>
       </c>
       <c r="D25">
-        <v>0.4022374247767288</v>
+        <v>1.81006841149528</v>
       </c>
       <c r="E25">
-        <v>0.5302582811991005</v>
+        <v>2.386162265395952</v>
       </c>
       <c r="F25">
-        <v>0.3464394594666438</v>
+        <v>1.558977567599897</v>
       </c>
       <c r="G25">
-        <v>0.6724221196433818</v>
+        <v>3.025899538395219</v>
       </c>
       <c r="H25">
-        <v>0.06578399643833618</v>
+        <v>0.2960279839725128</v>
       </c>
       <c r="I25">
-        <v>3.700771602263652</v>
+        <v>16.65347221018643</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1104,28 +1104,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>1.431103691948782</v>
+        <v>6.439966613769521</v>
       </c>
       <c r="C26">
-        <v>0.1289746677182648</v>
+        <v>0.5803860047321919</v>
       </c>
       <c r="D26">
-        <v>0.724027364598112</v>
+        <v>3.258123140691503</v>
       </c>
       <c r="E26">
-        <v>0.5710473797528773</v>
+        <v>2.569713208887948</v>
       </c>
       <c r="F26">
-        <v>0.6146506538924323</v>
+        <v>2.765927942515946</v>
       </c>
       <c r="G26">
-        <v>0.896562826191176</v>
+        <v>4.034532717860292</v>
       </c>
       <c r="H26">
-        <v>0.02192799881277873</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="I26">
-        <v>4.388294582914424</v>
+        <v>19.74732562311491</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1133,28 +1133,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>1.235549150191805</v>
+        <v>5.559971175863128</v>
       </c>
       <c r="C27">
-        <v>0.1289746677182648</v>
+        <v>0.5803860047321919</v>
       </c>
       <c r="D27">
-        <v>0.5229086522097475</v>
+        <v>2.353088934943864</v>
       </c>
       <c r="E27">
-        <v>0.3467073377071043</v>
+        <v>1.560183019681969</v>
       </c>
       <c r="F27">
-        <v>0.7208175850193073</v>
+        <v>3.243679132586882</v>
       </c>
       <c r="G27">
-        <v>0.6275939783338232</v>
+        <v>2.824172902502204</v>
       </c>
       <c r="H27">
-        <v>0.01096399940638936</v>
+        <v>0.04933799732875212</v>
       </c>
       <c r="I27">
-        <v>3.593515370586442</v>
+        <v>16.17081916763899</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1162,28 +1162,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>1.402214952825593</v>
+        <v>6.309967287715169</v>
       </c>
       <c r="C28">
-        <v>0.17810787446808</v>
+        <v>0.8014854351063602</v>
       </c>
       <c r="D28">
-        <v>0.5229086522097475</v>
+        <v>2.353088934943864</v>
       </c>
       <c r="E28">
-        <v>0.469074633368435</v>
+        <v>2.110835850157958</v>
       </c>
       <c r="F28">
-        <v>0.5587733217203932</v>
+        <v>2.514479947741769</v>
       </c>
       <c r="G28">
-        <v>0.896562826191176</v>
+        <v>4.034532717860292</v>
       </c>
       <c r="H28">
-        <v>0.02192799881277873</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="I28">
-        <v>4.049570259596204</v>
+        <v>18.22306616818292</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1191,28 +1191,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>1.277771153525699</v>
+        <v>5.749970190865643</v>
       </c>
       <c r="C29">
-        <v>0.1535412710931724</v>
+        <v>0.690935719919276</v>
       </c>
       <c r="D29">
-        <v>0.5631323946874207</v>
+        <v>2.534095776093392</v>
       </c>
       <c r="E29">
-        <v>0.3467073377071043</v>
+        <v>1.560183019681969</v>
       </c>
       <c r="F29">
-        <v>0.4581941238107223</v>
+        <v>2.061873557148251</v>
       </c>
       <c r="G29">
-        <v>0.3810392011312497</v>
+        <v>1.714676405090624</v>
       </c>
       <c r="H29">
-        <v>0.03289199821916809</v>
+        <v>0.1480139919862564</v>
       </c>
       <c r="I29">
-        <v>3.213277480174537</v>
+        <v>14.45974866078541</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1220,28 +1220,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>1.291104417736402</v>
+        <v>5.809969879813808</v>
       </c>
       <c r="C30">
-        <v>0.09212476265590346</v>
+        <v>0.4145614319515656</v>
       </c>
       <c r="D30">
-        <v>0.5027967809709112</v>
+        <v>2.2625855143691</v>
       </c>
       <c r="E30">
-        <v>0.3059182391533272</v>
+        <v>1.376632076189973</v>
       </c>
       <c r="F30">
-        <v>0.5587733217203932</v>
+        <v>2.514479947741769</v>
       </c>
       <c r="G30">
-        <v>0.73966433160772</v>
+        <v>3.32848949223474</v>
       </c>
       <c r="H30">
-        <v>0.04385599762555745</v>
+        <v>0.1973519893150085</v>
       </c>
       <c r="I30">
-        <v>3.534237851470215</v>
+        <v>15.90407033161596</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1249,28 +1249,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>1.29554883913997</v>
+        <v>5.829969776129863</v>
       </c>
       <c r="C31">
-        <v>0.122833016874538</v>
+        <v>0.5527485759354208</v>
       </c>
       <c r="D31">
-        <v>0.6435798796427663</v>
+        <v>2.896109458392448</v>
       </c>
       <c r="E31">
-        <v>0.3263127884302157</v>
+        <v>1.468407547935971</v>
       </c>
       <c r="F31">
-        <v>0.65376478641286</v>
+        <v>2.94194153885787</v>
       </c>
       <c r="G31">
-        <v>0.4706954837503672</v>
+        <v>2.118129676876653</v>
       </c>
       <c r="H31">
-        <v>0.02192799881277873</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="I31">
-        <v>3.534662793063495</v>
+        <v>15.90598256878573</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1278,28 +1278,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>1.355548528088133</v>
+        <v>6.0999683763966</v>
       </c>
       <c r="C32">
-        <v>0.1412579694057187</v>
+        <v>0.6356608623257338</v>
       </c>
       <c r="D32">
-        <v>0.5027967809709112</v>
+        <v>2.2625855143691</v>
       </c>
       <c r="E32">
-        <v>0.428285534814658</v>
+        <v>1.927284906665961</v>
       </c>
       <c r="F32">
-        <v>0.65376478641286</v>
+        <v>2.94194153885787</v>
       </c>
       <c r="G32">
-        <v>0.5155236250599262</v>
+        <v>2.319856312769667</v>
       </c>
       <c r="H32">
-        <v>0.03289199821916809</v>
+        <v>0.1480139919862564</v>
       </c>
       <c r="I32">
-        <v>3.630069222971375</v>
+        <v>16.33531150337119</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1307,28 +1307,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>1.544436437739758</v>
+        <v>6.94996396982891</v>
       </c>
       <c r="C33">
-        <v>0.09826641349963036</v>
+        <v>0.4421988607483366</v>
       </c>
       <c r="D33">
-        <v>0.8044748495534576</v>
+        <v>3.62013682299056</v>
       </c>
       <c r="E33">
-        <v>0.4894691826453235</v>
+        <v>2.202611321903956</v>
       </c>
       <c r="F33">
-        <v>0.6090629206752285</v>
+        <v>2.740783143038528</v>
       </c>
       <c r="G33">
-        <v>0.4931095544051468</v>
+        <v>2.21899299482316</v>
       </c>
       <c r="H33">
-        <v>0.03289199821916809</v>
+        <v>0.1480139919862564</v>
       </c>
       <c r="I33">
-        <v>4.071711356737713</v>
+        <v>18.32270110531971</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1336,28 +1336,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>1.879990253709115</v>
+        <v>8.459956141691018</v>
       </c>
       <c r="C34">
-        <v>0.1473996202494456</v>
+        <v>0.6632982911225049</v>
       </c>
       <c r="D34">
-        <v>0.5027967809709112</v>
+        <v>2.2625855143691</v>
       </c>
       <c r="E34">
-        <v>0.4486800840915466</v>
+        <v>2.019060378411959</v>
       </c>
       <c r="F34">
-        <v>0.5308346556343735</v>
+        <v>2.388755950354681</v>
       </c>
       <c r="G34">
-        <v>0.3586251304764703</v>
+        <v>1.613813087144117</v>
       </c>
       <c r="H34">
-        <v>0.01096399940638936</v>
+        <v>0.04933799732875212</v>
       </c>
       <c r="I34">
-        <v>3.879290524538252</v>
+        <v>17.45680736042213</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1365,28 +1365,28 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>1.835546039673439</v>
+        <v>8.259957178530476</v>
       </c>
       <c r="C35">
-        <v>0.04299155590608828</v>
+        <v>0.1934620015773973</v>
       </c>
       <c r="D35">
-        <v>0.5430205234485838</v>
+        <v>2.443592355518628</v>
       </c>
       <c r="E35">
-        <v>0.5302582811991005</v>
+        <v>2.386162265395952</v>
       </c>
       <c r="F35">
-        <v>0.2793866608601966</v>
+        <v>1.257239973870885</v>
       </c>
       <c r="G35">
-        <v>0.224140706547794</v>
+        <v>1.008633179465073</v>
       </c>
       <c r="H35">
-        <v>0.02192799881277873</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="I35">
-        <v>3.47727176644798</v>
+        <v>15.64772294901592</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1394,28 +1394,28 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>1.617769390898625</v>
+        <v>7.279962259043809</v>
       </c>
       <c r="C36">
-        <v>0.07369981012472279</v>
+        <v>0.3316491455612525</v>
       </c>
       <c r="D36">
-        <v>0.3821255535378925</v>
+        <v>1.719564990920516</v>
       </c>
       <c r="E36">
-        <v>0.7138092246910966</v>
+        <v>3.212141511109935</v>
       </c>
       <c r="F36">
-        <v>0.2011583958193416</v>
+        <v>0.9052127811870367</v>
       </c>
       <c r="G36">
-        <v>0.3810392011312497</v>
+        <v>1.714676405090624</v>
       </c>
       <c r="H36">
-        <v>0.02192799881277873</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="I36">
-        <v>3.391529575015707</v>
+        <v>15.26188308757068</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1423,28 +1423,28 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>1.271104521420347</v>
+        <v>5.719970346391564</v>
       </c>
       <c r="C37">
-        <v>0.0368499050623614</v>
+        <v>0.1658245727806262</v>
       </c>
       <c r="D37">
-        <v>0.3016780685825466</v>
+        <v>1.35755130862146</v>
       </c>
       <c r="E37">
-        <v>0.5710473797528773</v>
+        <v>2.569713208887948</v>
       </c>
       <c r="F37">
-        <v>0.1788074629505258</v>
+        <v>0.8046335832773662</v>
       </c>
       <c r="G37">
-        <v>0.2017266358930146</v>
+        <v>0.9077698615185654</v>
       </c>
       <c r="H37">
-        <v>0.01096399940638936</v>
+        <v>0.04933799732875212</v>
       </c>
       <c r="I37">
-        <v>2.572177973068063</v>
+        <v>11.57480087880628</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1452,25 +1452,25 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>0.9977726051009373</v>
+        <v>4.489976722954217</v>
       </c>
       <c r="C38">
-        <v>0.05527485759354208</v>
+        <v>0.2487368591709393</v>
       </c>
       <c r="D38">
-        <v>0.2815661973437104</v>
+        <v>1.267047888046696</v>
       </c>
       <c r="E38">
-        <v>0.6526255768604313</v>
+        <v>2.936815095871942</v>
       </c>
       <c r="F38">
-        <v>0.1173423975612825</v>
+        <v>0.5280407890257716</v>
       </c>
       <c r="G38">
-        <v>0.1344844239286763</v>
+        <v>0.6051799076790437</v>
       </c>
       <c r="I38">
-        <v>2.23906605838858</v>
+        <v>10.07579726274861</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1478,28 +1478,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>0.655552157026228</v>
+        <v>2.949984706618028</v>
       </c>
       <c r="C39">
-        <v>0.02456660337490759</v>
+        <v>0.1105497151870842</v>
       </c>
       <c r="D39">
-        <v>0.1206712274330187</v>
+        <v>0.5430205234485838</v>
       </c>
       <c r="E39">
-        <v>0.3671018869839927</v>
+        <v>1.651958491427967</v>
       </c>
       <c r="F39">
-        <v>0.08381599825805897</v>
+        <v>0.3771719921612653</v>
       </c>
       <c r="G39">
-        <v>0.1568984945834558</v>
+        <v>0.7060432256255511</v>
       </c>
       <c r="H39">
-        <v>0.01096399940638936</v>
+        <v>0.04933799732875212</v>
       </c>
       <c r="I39">
-        <v>1.419570367066051</v>
+        <v>6.388066651797232</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1507,25 +1507,25 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>0.339998237372925</v>
+        <v>1.529992068178162</v>
       </c>
       <c r="C40">
-        <v>0.06755815928099589</v>
+        <v>0.3040117167644815</v>
       </c>
       <c r="D40">
-        <v>0.1608949699106916</v>
+        <v>0.724027364598112</v>
       </c>
       <c r="E40">
-        <v>0.1631563942151078</v>
+        <v>0.7342037739679854</v>
       </c>
       <c r="F40">
-        <v>0.1005791979096708</v>
+        <v>0.4526063905935184</v>
       </c>
       <c r="G40">
-        <v>0.112070353273897</v>
+        <v>0.5043165897325365</v>
       </c>
       <c r="I40">
-        <v>0.9442573119632881</v>
+        <v>4.249157903834796</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1533,22 +1533,22 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>0.2333321236873015</v>
+        <v>1.049994556592857</v>
       </c>
       <c r="C41">
-        <v>0.03070825421863449</v>
+        <v>0.1381871439838552</v>
       </c>
       <c r="D41">
-        <v>0.04022374247767289</v>
+        <v>0.181006841149528</v>
       </c>
       <c r="F41">
-        <v>0.05028959895483539</v>
+        <v>0.2263031952967592</v>
       </c>
       <c r="G41">
-        <v>0.112070353273897</v>
+        <v>0.5043165897325365</v>
       </c>
       <c r="I41">
-        <v>0.4666240726123413</v>
+        <v>2.099808326755536</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1556,28 +1556,28 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>0.188887909651625</v>
+        <v>0.8499955934323126</v>
       </c>
       <c r="C42">
-        <v>0.06141650843726898</v>
+        <v>0.2763742879677104</v>
       </c>
       <c r="D42">
-        <v>0.08044748495534579</v>
+        <v>0.362013682299056</v>
       </c>
       <c r="E42">
-        <v>0.02039454927688848</v>
+        <v>0.09177547174599818</v>
       </c>
       <c r="F42">
-        <v>0.06705279860644717</v>
+        <v>0.3017375937290123</v>
       </c>
       <c r="G42">
-        <v>0.08965628261911757</v>
+        <v>0.4034532717860291</v>
       </c>
       <c r="H42">
-        <v>0.02192799881277873</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="I42">
-        <v>0.5297835323594717</v>
+        <v>2.384025895617623</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1585,22 +1585,22 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>0.1044439029838397</v>
+        <v>0.4699975634272788</v>
       </c>
       <c r="C43">
-        <v>0.0184249525311807</v>
+        <v>0.08291228639031312</v>
       </c>
       <c r="D43">
-        <v>0.08044748495534579</v>
+        <v>0.362013682299056</v>
       </c>
       <c r="F43">
-        <v>0.07264053182365111</v>
+        <v>0.3268823932064299</v>
       </c>
       <c r="G43">
-        <v>0.1568984945834558</v>
+        <v>0.7060432256255511</v>
       </c>
       <c r="I43">
-        <v>0.4328553668774731</v>
+        <v>1.947849150948629</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1608,25 +1608,25 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>0.1022216922820559</v>
+        <v>0.4599976152692518</v>
       </c>
       <c r="C44">
-        <v>0.0184249525311807</v>
+        <v>0.08291228639031312</v>
       </c>
       <c r="D44">
-        <v>0.06033561371650933</v>
+        <v>0.2715102617242919</v>
       </c>
       <c r="E44">
-        <v>0.08157819710755392</v>
+        <v>0.3671018869839927</v>
       </c>
       <c r="F44">
-        <v>0.04470186573763146</v>
+        <v>0.2011583958193416</v>
       </c>
       <c r="G44">
-        <v>0.04482814130955878</v>
+        <v>0.2017266358930146</v>
       </c>
       <c r="I44">
-        <v>0.3520904626844901</v>
+        <v>1.584407082080206</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1634,25 +1634,25 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>0.2666652842140589</v>
+        <v>1.199993778963265</v>
       </c>
       <c r="C45">
-        <v>0.006141650843726898</v>
+        <v>0.02763742879677104</v>
       </c>
       <c r="D45">
-        <v>0.08044748495534579</v>
+        <v>0.362013682299056</v>
       </c>
       <c r="E45">
-        <v>0.04078909855377696</v>
+        <v>0.1835509434919964</v>
       </c>
       <c r="F45">
-        <v>0.07264053182365111</v>
+        <v>0.3268823932064299</v>
       </c>
       <c r="G45">
-        <v>0.04482814130955878</v>
+        <v>0.2017266358930146</v>
       </c>
       <c r="I45">
-        <v>0.5115121917001185</v>
+        <v>2.301804862650533</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1660,25 +1660,25 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>0.7688849028172032</v>
+        <v>3.459982062677413</v>
       </c>
       <c r="C46">
-        <v>0.04913320674981518</v>
+        <v>0.2210994303741683</v>
       </c>
       <c r="D46">
-        <v>0.3016780685825466</v>
+        <v>1.35755130862146</v>
       </c>
       <c r="E46">
-        <v>0.1835509434919964</v>
+        <v>0.8259792457139835</v>
       </c>
       <c r="F46">
-        <v>0.2346847951225651</v>
+        <v>1.056081578051543</v>
       </c>
       <c r="G46">
-        <v>0.3586251304764703</v>
+        <v>1.613813087144117</v>
       </c>
       <c r="I46">
-        <v>1.896557047240597</v>
+        <v>8.534506712582685</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1686,28 +1686,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>1.217771464577536</v>
+        <v>5.479971590598911</v>
       </c>
       <c r="C47">
-        <v>0.08598311181217656</v>
+        <v>0.3869240031547946</v>
       </c>
       <c r="D47">
-        <v>0.3217899398213832</v>
+        <v>1.448054729196224</v>
       </c>
       <c r="E47">
-        <v>0.7138092246910966</v>
+        <v>3.212141511109935</v>
       </c>
       <c r="F47">
-        <v>0.4190799912902949</v>
+        <v>1.885859960806327</v>
       </c>
       <c r="G47">
-        <v>0.73966433160772</v>
+        <v>3.32848949223474</v>
       </c>
       <c r="H47">
-        <v>0.05481999703194682</v>
+        <v>0.2466899866437607</v>
       </c>
       <c r="I47">
-        <v>3.552918060832154</v>
+        <v>15.98813127374469</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1715,28 +1715,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>1.60443612668792</v>
+        <v>7.219962570095645</v>
       </c>
       <c r="C48">
-        <v>0.05527485759354208</v>
+        <v>0.2487368591709393</v>
       </c>
       <c r="D48">
-        <v>0.5027967809709112</v>
+        <v>2.2625855143691</v>
       </c>
       <c r="E48">
-        <v>0.7749928725217621</v>
+        <v>3.48746792634793</v>
       </c>
       <c r="F48">
-        <v>0.4581941238107223</v>
+        <v>2.061873557148251</v>
       </c>
       <c r="G48">
-        <v>0.448281413095588</v>
+        <v>2.017266358930146</v>
       </c>
       <c r="H48">
-        <v>0.02192799881277873</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="I48">
-        <v>3.865904173493224</v>
+        <v>17.39656878071952</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1744,28 +1744,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>1.622213812302192</v>
+        <v>7.299962155359864</v>
       </c>
       <c r="C49">
-        <v>0.06141650843726898</v>
+        <v>0.2763742879677104</v>
       </c>
       <c r="D49">
-        <v>0.4022374247767288</v>
+        <v>1.81006841149528</v>
       </c>
       <c r="E49">
-        <v>0.5302582811991005</v>
+        <v>2.386162265395952</v>
       </c>
       <c r="F49">
-        <v>0.3464394594666438</v>
+        <v>1.558977567599897</v>
       </c>
       <c r="G49">
-        <v>0.6724221196433818</v>
+        <v>3.025899538395219</v>
       </c>
       <c r="H49">
-        <v>0.06578399643833618</v>
+        <v>0.2960279839725128</v>
       </c>
       <c r="I49">
-        <v>3.700771602263652</v>
+        <v>16.65347221018643</v>
       </c>
     </row>
   </sheetData>
